--- a/pred_ohlcv/54_21/2020-01-20 TRX ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-20 TRX ohlcv.xlsx
@@ -470,7 +470,7 @@
         <v>-3455019.20265216</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-2423013.06505216</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-2423013.06505216</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-1815178.03086454</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -938,7 +938,7 @@
         <v>-2148542.10718696</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-2589867.59465609</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-3025516.54905609</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>-4272063.71735609</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-4015435.15345609</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-4015435.15345609</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-3908657.36625609</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-4222207.437656091</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-4242207.437656091</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-4039287.437656091</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>-3333763.75625609</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>-3483464.355156091</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-3559250.15515609</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-4177065.74945609</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-4219554.529256091</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-3955407.529256091</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>-4108533.880356091</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-4124863.815956091</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>-4121943.815956091</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>-4146943.947156091</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>-4146943.947156091</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>-4185613.354756091</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>-4185613.354756091</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>-4185613.354756091</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>-4075732.369956091</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>-3925857.05785609</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>-3986633.272756091</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>-3983433.272756091</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>-3992097.473856091</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>-4047197.166356091</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>-4047197.166356091</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>-4435009.971256091</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>-4434982.985656091</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>-4438982.985656091</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>-4075562.985656091</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>-4075971.612556091</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>-4445480.905007442</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>-4425480.905007442</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>-4427080.905007442</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>-4427080.905007442</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>-4437080.905007442</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>-4436697.849207441</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>-4436697.849207441</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>-4438142.943107441</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-4438142.943107441</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>-4438142.943107441</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>-4420638.073707441</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>-4420638.073707441</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>-4420638.073707441</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>-4431820.143707441</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>-4431820.143707441</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-4616680.382107441</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-4615060.602107441</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-4549111.702107441</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-4549111.702107441</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-4549801.547407441</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>-4524202.118407441</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>-4524202.118407441</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>-4615716.120407442</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-4408097.120407442</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>-4512975.722207442</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>-4335755.736707442</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>-4335755.736707442</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>-4389905.594107442</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-4390163.608707442</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-4373609.910643922</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>-4040033.910643922</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>-4041977.760643922</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>-3881045.879543922</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>-4684778.159443922</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>-4681733.831743922</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>-4662299.831743922</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>-4662299.831743922</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>-4662299.831743922</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>-4662299.831743922</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>-4662299.831743922</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>-4663154.011743922</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>-4663154.011743922</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>-4663154.011743922</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>-4092872.317343922</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>-4038770.903843922</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>-4041402.453843922</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>-4041402.453843922</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>-4041402.453843922</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>-4016588.871754372</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>-4064360.965054372</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>-4024356.747554372</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>-4024356.747554372</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>-4022783.187754372</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>-4022783.187754372</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>-4452671.249754372</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>-4453314.174554372</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>-4561133.102054372</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>-4561133.102054372</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>-4566888.676854372</v>
       </c>
       <c r="H138">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>-4577105.006854372</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>-4577080.006854372</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>-4577080.006854372</v>
       </c>
       <c r="H141">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>-4622182.117254372</v>
       </c>
       <c r="H142">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>-4654973.902654372</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>-4656612.042654372</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>-4656612.042654372</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>-4659021.753854372</v>
       </c>
       <c r="H146">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>-4651590.826954371</v>
       </c>
       <c r="H147">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>-4452972.880054371</v>
       </c>
       <c r="H148">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>-4452972.880054371</v>
       </c>
       <c r="H149">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>-4452972.880054371</v>
       </c>
       <c r="H150">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>-4452972.880054371</v>
       </c>
       <c r="H151">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>-4452972.880054371</v>
       </c>
       <c r="H152">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>-4349316.946154372</v>
       </c>
       <c r="H153">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>-4333646.146554372</v>
       </c>
       <c r="H154">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>-4333646.146554372</v>
       </c>
       <c r="H155">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>-4333646.146554372</v>
       </c>
       <c r="H156">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>-4333646.146554372</v>
       </c>
       <c r="H157">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>-4333646.146554372</v>
       </c>
       <c r="H158">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>-4333646.146554372</v>
       </c>
       <c r="H159">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>-4333646.146554372</v>
       </c>
       <c r="H160">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>-4334646.146554372</v>
       </c>
       <c r="H161">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>-4334646.146554372</v>
       </c>
       <c r="H162">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>-4351953.430354373</v>
       </c>
       <c r="H163">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>-4351953.430354373</v>
       </c>
       <c r="H164">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>-4351953.430354373</v>
       </c>
       <c r="H165">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>-4351953.430354373</v>
       </c>
       <c r="H166">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>-4479679.014114263</v>
       </c>
       <c r="H188">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>-4479679.014114263</v>
       </c>
       <c r="H190">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>-4376576.157714263</v>
       </c>
       <c r="H191">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>-4376576.157714263</v>
       </c>
       <c r="H192">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>-4376576.157714263</v>
       </c>
       <c r="H193">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>-4376576.157714263</v>
       </c>
       <c r="H194">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>-4376576.157714263</v>
       </c>
       <c r="H195">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>-4427364.283814263</v>
       </c>
       <c r="H196">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>-4427364.283814263</v>
       </c>
       <c r="H197">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>-4425364.283814263</v>
       </c>
       <c r="H199">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>-4425364.283814263</v>
       </c>
       <c r="H200">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>-4423170.687268233</v>
       </c>
       <c r="H201">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>-3632662.265368233</v>
       </c>
       <c r="H202">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>-3634958.187468233</v>
       </c>
       <c r="H203">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>-3573353.060530673</v>
       </c>
       <c r="H204">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>-3547753.060530673</v>
       </c>
       <c r="H205">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>-3419333.246484433</v>
       </c>
       <c r="H206">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>-3232020.268284434</v>
       </c>
       <c r="H207">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>-1909727.639984434</v>
       </c>
       <c r="H208">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>-2175869.375884434</v>
       </c>
       <c r="H209">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>-2148394.524984434</v>
       </c>
       <c r="H210">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>-1919741.641384434</v>
       </c>
       <c r="H211">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>-1919741.641384434</v>
       </c>
       <c r="H212">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>-1866741.641384434</v>
       </c>
       <c r="H213">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>-1811803.369779504</v>
       </c>
       <c r="H214">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>-1756494.154179504</v>
       </c>
       <c r="H215">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>-2056269.597079504</v>
       </c>
       <c r="H216">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>-2037439.890679504</v>
       </c>
       <c r="H217">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>-2040315.339579504</v>
       </c>
       <c r="H218">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>-2049059.062479504</v>
       </c>
       <c r="H219">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>-2527921.133479504</v>
       </c>
       <c r="H220">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>-2510290.838916974</v>
       </c>
       <c r="H221">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>-2520352.112316974</v>
       </c>
       <c r="H222">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>-2520352.112316974</v>
       </c>
       <c r="H223">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>-2591661.278916974</v>
       </c>
       <c r="H224">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>-2814587.775026544</v>
       </c>
       <c r="H245">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -7594,7 +7594,7 @@
         <v>-3172463.437626544</v>
       </c>
       <c r="H277">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>-2879501.852748384</v>
       </c>
       <c r="H278">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -7646,7 +7646,7 @@
         <v>-2879501.852748384</v>
       </c>
       <c r="H279">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -7672,7 +7672,7 @@
         <v>-2878087.014748384</v>
       </c>
       <c r="H280">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -7698,7 +7698,7 @@
         <v>-2716816.918748384</v>
       </c>
       <c r="H281">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -7724,7 +7724,7 @@
         <v>-2716816.918748384</v>
       </c>
       <c r="H282">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -7750,7 +7750,7 @@
         <v>-2716816.918748384</v>
       </c>
       <c r="H283">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -7776,7 +7776,7 @@
         <v>-2716816.918748384</v>
       </c>
       <c r="H284">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>-2716816.918748384</v>
       </c>
       <c r="H285">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -7828,7 +7828,7 @@
         <v>-2716816.918748384</v>
       </c>
       <c r="H286">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -7854,7 +7854,7 @@
         <v>-2294824.346348384</v>
       </c>
       <c r="H287">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>-2294824.346348384</v>
       </c>
       <c r="H288">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>-2292101.552048384</v>
       </c>
       <c r="H289">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>-2292101.552048384</v>
       </c>
       <c r="H290">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -7958,7 +7958,7 @@
         <v>-2292101.552048384</v>
       </c>
       <c r="H291">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>-2296578.696848384</v>
       </c>
       <c r="H292">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>-2296578.696848384</v>
       </c>
       <c r="H293">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8036,7 +8036,7 @@
         <v>-2296578.696848384</v>
       </c>
       <c r="H294">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -8062,7 +8062,7 @@
         <v>-2383445.918748384</v>
       </c>
       <c r="H295">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -8088,7 +8088,7 @@
         <v>-2383445.918748384</v>
       </c>
       <c r="H296">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>-2383445.918748384</v>
       </c>
       <c r="H297">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -8140,7 +8140,7 @@
         <v>-2383445.918748384</v>
       </c>
       <c r="H298">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>-2433431.371448384</v>
       </c>
       <c r="H299">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>-2469548.627719884</v>
       </c>
       <c r="H300">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>-2428145.493219884</v>
       </c>
       <c r="H301">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8244,7 +8244,7 @@
         <v>-2443450.349019884</v>
       </c>
       <c r="H302">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>-2231427.833719884</v>
       </c>
       <c r="H303">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -8296,7 +8296,7 @@
         <v>-1867920.236919884</v>
       </c>
       <c r="H304">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -8322,7 +8322,7 @@
         <v>-1462065.283419884</v>
       </c>
       <c r="H305">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -8348,7 +8348,7 @@
         <v>-1686175.716219884</v>
       </c>
       <c r="H306">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -8374,7 +8374,7 @@
         <v>-1685974.913919884</v>
       </c>
       <c r="H307">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -8400,7 +8400,7 @@
         <v>-1693680.283419884</v>
       </c>
       <c r="H308">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -8426,7 +8426,7 @@
         <v>-1632146.742619884</v>
       </c>
       <c r="H309">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -8452,7 +8452,7 @@
         <v>-1432146.742619884</v>
       </c>
       <c r="H310">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -8478,7 +8478,7 @@
         <v>-1432146.742619884</v>
       </c>
       <c r="H311">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -8504,7 +8504,7 @@
         <v>-1432146.742619884</v>
       </c>
       <c r="H312">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -8530,7 +8530,7 @@
         <v>-1432146.742619884</v>
       </c>
       <c r="H313">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -8556,7 +8556,7 @@
         <v>-1380893.338329894</v>
       </c>
       <c r="H314">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -8582,7 +8582,7 @@
         <v>-1684474.956129894</v>
       </c>
       <c r="H315">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -8608,7 +8608,7 @@
         <v>-1875556.635429894</v>
       </c>
       <c r="H316">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -8634,7 +8634,7 @@
         <v>-1875556.635429894</v>
       </c>
       <c r="H317">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -8660,7 +8660,7 @@
         <v>-1875556.635429894</v>
       </c>
       <c r="H318">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -8686,7 +8686,7 @@
         <v>-1875556.635429894</v>
       </c>
       <c r="H319">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -8712,7 +8712,7 @@
         <v>-1907750.436329894</v>
       </c>
       <c r="H320">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -8738,7 +8738,7 @@
         <v>-2177229.209029894</v>
       </c>
       <c r="H321">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -8764,7 +8764,7 @@
         <v>-2151359.719329894</v>
       </c>
       <c r="H322">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -8790,7 +8790,7 @@
         <v>-2311158.405729894</v>
       </c>
       <c r="H323">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -8816,7 +8816,7 @@
         <v>-2102289.013429894</v>
       </c>
       <c r="H324">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -8842,7 +8842,7 @@
         <v>-2102289.013429894</v>
       </c>
       <c r="H325">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -8868,7 +8868,7 @@
         <v>-2021072.690429894</v>
       </c>
       <c r="H326">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -8894,7 +8894,7 @@
         <v>-2150289.772904394</v>
       </c>
       <c r="H327">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -8920,7 +8920,7 @@
         <v>-2150289.772904394</v>
       </c>
       <c r="H328">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -8946,7 +8946,7 @@
         <v>-184274.2791943841</v>
       </c>
       <c r="H329">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -8972,7 +8972,7 @@
         <v>-183405.3189943841</v>
       </c>
       <c r="H330">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -8998,7 +8998,7 @@
         <v>-183405.3189943841</v>
       </c>
       <c r="H331">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -9024,7 +9024,7 @@
         <v>-333303.0994943841</v>
       </c>
       <c r="H332">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -9050,7 +9050,7 @@
         <v>-423154.8204943842</v>
       </c>
       <c r="H333">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -9076,7 +9076,7 @@
         <v>-478981.0540943841</v>
       </c>
       <c r="H334">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -9102,7 +9102,7 @@
         <v>-478981.0540943841</v>
       </c>
       <c r="H335">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -9128,7 +9128,7 @@
         <v>-478981.0540943841</v>
       </c>
       <c r="H336">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -9154,7 +9154,7 @@
         <v>-447679.3503100142</v>
       </c>
       <c r="H337">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -9180,7 +9180,7 @@
         <v>-440994.7945100142</v>
       </c>
       <c r="H338">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -9206,7 +9206,7 @@
         <v>-440994.7945100142</v>
       </c>
       <c r="H339">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -9232,7 +9232,7 @@
         <v>-1124465.431610014</v>
       </c>
       <c r="H340">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -9258,7 +9258,7 @@
         <v>-1124465.431610014</v>
       </c>
       <c r="H341">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -9284,7 +9284,7 @@
         <v>-936638.3647100143</v>
       </c>
       <c r="H342">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -9310,7 +9310,7 @@
         <v>-936638.3647100143</v>
       </c>
       <c r="H343">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -9336,7 +9336,7 @@
         <v>-1245430.699310014</v>
       </c>
       <c r="H344">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -9362,7 +9362,7 @@
         <v>-1335166.779410014</v>
       </c>
       <c r="H345">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -9388,7 +9388,7 @@
         <v>-1355166.779410014</v>
       </c>
       <c r="H346">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -9414,7 +9414,7 @@
         <v>-1345694.063610014</v>
       </c>
       <c r="H347">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -9440,7 +9440,7 @@
         <v>-1406877.360110014</v>
       </c>
       <c r="H348">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -9466,7 +9466,7 @@
         <v>-1429811.270110014</v>
       </c>
       <c r="H349">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -9492,7 +9492,7 @@
         <v>-2189800.069010014</v>
       </c>
       <c r="H350">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -9518,7 +9518,7 @@
         <v>-2398716.324810014</v>
       </c>
       <c r="H351">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -9544,7 +9544,7 @@
         <v>-2398716.324810014</v>
       </c>
       <c r="H352">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -10324,7 +10324,7 @@
         <v>-563254.4179923045</v>
       </c>
       <c r="H382">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -10350,7 +10350,7 @@
         <v>-565376.4179923045</v>
       </c>
       <c r="H383">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -10376,7 +10376,7 @@
         <v>-564868.4179923045</v>
       </c>
       <c r="H384">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -10402,7 +10402,7 @@
         <v>-593283.3779923045</v>
       </c>
       <c r="H385">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -10428,7 +10428,7 @@
         <v>-602271.0797923045</v>
       </c>
       <c r="H386">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -10454,7 +10454,7 @@
         <v>-597354.6493923046</v>
       </c>
       <c r="H387">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -10480,7 +10480,7 @@
         <v>-593724.3593923046</v>
       </c>
       <c r="H388">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -10506,7 +10506,7 @@
         <v>-738266.2416923046</v>
       </c>
       <c r="H389">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -10532,7 +10532,7 @@
         <v>-722098.3298923046</v>
       </c>
       <c r="H390">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -10558,7 +10558,7 @@
         <v>-972098.3298923046</v>
       </c>
       <c r="H391">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -10584,7 +10584,7 @@
         <v>-960559.9298923046</v>
       </c>
       <c r="H392">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -10610,7 +10610,7 @@
         <v>-957211.4298923046</v>
       </c>
       <c r="H393">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -10636,7 +10636,7 @@
         <v>-967763.2598923045</v>
       </c>
       <c r="H394">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -10662,7 +10662,7 @@
         <v>-968291.9603837045</v>
       </c>
       <c r="H395">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -10688,7 +10688,7 @@
         <v>-822599.7486837045</v>
       </c>
       <c r="H396">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -10714,7 +10714,7 @@
         <v>-823152.5906837045</v>
       </c>
       <c r="H397">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -10740,7 +10740,7 @@
         <v>-758486.1545837044</v>
       </c>
       <c r="H398">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -10766,7 +10766,7 @@
         <v>-798734.7021837045</v>
       </c>
       <c r="H399">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -10792,7 +10792,7 @@
         <v>-806574.0366837045</v>
       </c>
       <c r="H400">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -10818,7 +10818,7 @@
         <v>-770776.3951717145</v>
       </c>
       <c r="H401">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -10844,7 +10844,7 @@
         <v>-770776.3951717145</v>
       </c>
       <c r="H402">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -10870,7 +10870,7 @@
         <v>-770776.3951717145</v>
       </c>
       <c r="H403">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -10896,7 +10896,7 @@
         <v>-773178.2851717145</v>
       </c>
       <c r="H404">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -10922,7 +10922,7 @@
         <v>-738053.7798717145</v>
       </c>
       <c r="H405">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -10948,7 +10948,7 @@
         <v>-744160.6692717145</v>
       </c>
       <c r="H406">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -10974,7 +10974,7 @@
         <v>-740065.8592717145</v>
       </c>
       <c r="H407">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -11000,7 +11000,7 @@
         <v>-256091.4948909145</v>
       </c>
       <c r="H408">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -11026,7 +11026,7 @@
         <v>-259200.3148909145</v>
       </c>
       <c r="H409">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -11052,7 +11052,7 @@
         <v>-100363.1409909145</v>
       </c>
       <c r="H410">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -11078,7 +11078,7 @@
         <v>-100332.2953909145</v>
       </c>
       <c r="H411">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -11104,7 +11104,7 @@
         <v>-267197.3779909145</v>
       </c>
       <c r="H412">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -11130,7 +11130,7 @@
         <v>-297246.5180909145</v>
       </c>
       <c r="H413">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -11156,7 +11156,7 @@
         <v>-286983.6637409645</v>
       </c>
       <c r="H414">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -11182,7 +11182,7 @@
         <v>-356666.0168409646</v>
       </c>
       <c r="H415">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -11208,7 +11208,7 @@
         <v>-321140.7387587245</v>
       </c>
       <c r="H416">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -11234,7 +11234,7 @@
         <v>-345393.6621572445</v>
       </c>
       <c r="H417">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -11260,7 +11260,7 @@
         <v>-345393.6621572445</v>
       </c>
       <c r="H418">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -11286,7 +11286,7 @@
         <v>-309590.7682572445</v>
       </c>
       <c r="H419">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -11312,7 +11312,7 @@
         <v>-306741.8378572445</v>
       </c>
       <c r="H420">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -11338,7 +11338,7 @@
         <v>-306741.8378572445</v>
       </c>
       <c r="H421">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -11364,7 +11364,7 @@
         <v>-306741.8378572445</v>
       </c>
       <c r="H422">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -11390,7 +11390,7 @@
         <v>-577297.7590176545</v>
       </c>
       <c r="H423">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -11416,7 +11416,7 @@
         <v>-577297.7590176545</v>
       </c>
       <c r="H424">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -11442,7 +11442,7 @@
         <v>-561563.0806176545</v>
       </c>
       <c r="H425">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -11468,7 +11468,7 @@
         <v>-561763.0806176545</v>
       </c>
       <c r="H426">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -11494,7 +11494,7 @@
         <v>-542330.6058176545</v>
       </c>
       <c r="H427">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -11520,7 +11520,7 @@
         <v>-1292330.837517655</v>
       </c>
       <c r="H428">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -11546,7 +11546,7 @@
         <v>-1292305.837517655</v>
       </c>
       <c r="H429">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -11572,7 +11572,7 @@
         <v>-1396331.880617654</v>
       </c>
       <c r="H430">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -11598,7 +11598,7 @@
         <v>-1196091.880617654</v>
       </c>
       <c r="H431">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -11624,7 +11624,7 @@
         <v>-1196157.711117654</v>
       </c>
       <c r="H432">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -11650,7 +11650,7 @@
         <v>-1196157.711117654</v>
       </c>
       <c r="H433">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -11676,7 +11676,7 @@
         <v>-1398341.567217654</v>
       </c>
       <c r="H434">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -11702,7 +11702,7 @@
         <v>-1351494.815017654</v>
       </c>
       <c r="H435">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -11728,7 +11728,7 @@
         <v>-1451734.279717654</v>
       </c>
       <c r="H436">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -11754,7 +11754,7 @@
         <v>-832218.4425176543</v>
       </c>
       <c r="H437">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -11780,7 +11780,7 @@
         <v>-832218.4425176543</v>
       </c>
       <c r="H438">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -11806,7 +11806,7 @@
         <v>-832218.4425176543</v>
       </c>
       <c r="H439">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -11832,7 +11832,7 @@
         <v>-852984.8270176543</v>
       </c>
       <c r="H440">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -11858,7 +11858,7 @@
         <v>-842168.9508176543</v>
       </c>
       <c r="H441">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -11884,7 +11884,7 @@
         <v>-848375.1308176543</v>
       </c>
       <c r="H442">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -11910,7 +11910,7 @@
         <v>-862984.8346176543</v>
       </c>
       <c r="H443">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -11936,7 +11936,7 @@
         <v>-1032892.209017654</v>
       </c>
       <c r="H444">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -11962,7 +11962,7 @@
         <v>-1028991.119017654</v>
       </c>
       <c r="H445">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -11988,7 +11988,7 @@
         <v>-1091930.538617654</v>
       </c>
       <c r="H446">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -12014,7 +12014,7 @@
         <v>-2495062.527517654</v>
       </c>
       <c r="H447">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -12040,7 +12040,7 @@
         <v>-2486062.527517654</v>
       </c>
       <c r="H448">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -12118,7 +12118,7 @@
         <v>-1868424.546817654</v>
       </c>
       <c r="H451">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -12196,7 +12196,7 @@
         <v>-1858606.122929074</v>
       </c>
       <c r="H454">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -12222,7 +12222,7 @@
         <v>-1858606.122929074</v>
       </c>
       <c r="H455">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -12248,7 +12248,7 @@
         <v>-1865086.977329074</v>
       </c>
       <c r="H456">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -12560,7 +12560,7 @@
         <v>-572422.9493765139</v>
       </c>
       <c r="H468">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="469" spans="1:8">
@@ -12586,7 +12586,7 @@
         <v>-643552.3200765139</v>
       </c>
       <c r="H469">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -12612,7 +12612,7 @@
         <v>-848378.8928765139</v>
       </c>
       <c r="H470">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="471" spans="1:8">
@@ -12638,7 +12638,7 @@
         <v>-846380.8928765139</v>
       </c>
       <c r="H471">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="472" spans="1:8">
@@ -12664,7 +12664,7 @@
         <v>-846318.0480765139</v>
       </c>
       <c r="H472">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="473" spans="1:8">
@@ -12690,7 +12690,7 @@
         <v>-699366.2878543739</v>
       </c>
       <c r="H473">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="474" spans="1:8">
@@ -12716,7 +12716,7 @@
         <v>-699366.2878543739</v>
       </c>
       <c r="H474">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="475" spans="1:8">
@@ -12742,7 +12742,7 @@
         <v>-542497.521454374</v>
       </c>
       <c r="H475">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="476" spans="1:8">
@@ -12768,7 +12768,7 @@
         <v>-547109.6142543739</v>
       </c>
       <c r="H476">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="477" spans="1:8">
@@ -12794,7 +12794,7 @@
         <v>-547109.6142543739</v>
       </c>
       <c r="H477">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="478" spans="1:8">
@@ -12820,7 +12820,7 @@
         <v>-393197.7301543739</v>
       </c>
       <c r="H478">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="479" spans="1:8">
@@ -12846,7 +12846,7 @@
         <v>-393197.7301543739</v>
       </c>
       <c r="H479">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="480" spans="1:8">
@@ -12872,7 +12872,7 @@
         <v>-392926.2247780339</v>
       </c>
       <c r="H480">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="481" spans="1:8">
@@ -12898,7 +12898,7 @@
         <v>-392926.2247780339</v>
       </c>
       <c r="H481">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="482" spans="1:8">
@@ -12924,7 +12924,7 @@
         <v>-476826.9267780339</v>
       </c>
       <c r="H482">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="483" spans="1:8">
@@ -12950,7 +12950,7 @@
         <v>-379981.5819780339</v>
       </c>
       <c r="H483">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="484" spans="1:8">
@@ -12976,7 +12976,7 @@
         <v>-379005.5890780339</v>
       </c>
       <c r="H484">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="485" spans="1:8">
@@ -13002,7 +13002,7 @@
         <v>-387244.5643780339</v>
       </c>
       <c r="H485">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="486" spans="1:8">
@@ -13028,7 +13028,7 @@
         <v>-387244.5643780339</v>
       </c>
       <c r="H486">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="487" spans="1:8">
@@ -13054,7 +13054,7 @@
         <v>-387174.3143780339</v>
       </c>
       <c r="H487">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="488" spans="1:8">
@@ -13080,7 +13080,7 @@
         <v>-387174.3143780339</v>
       </c>
       <c r="H488">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="489" spans="1:8">
@@ -13106,7 +13106,7 @@
         <v>-387174.3143780339</v>
       </c>
       <c r="H489">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="490" spans="1:8">
@@ -13132,7 +13132,7 @@
         <v>-387174.3143780339</v>
       </c>
       <c r="H490">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="491" spans="1:8">
@@ -13158,7 +13158,7 @@
         <v>-379601.4667780339</v>
       </c>
       <c r="H491">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="492" spans="1:8">
@@ -13184,7 +13184,7 @@
         <v>-379601.4667780339</v>
       </c>
       <c r="H492">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="493" spans="1:8">
@@ -13210,7 +13210,7 @@
         <v>-379797.0432780339</v>
       </c>
       <c r="H493">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="494" spans="1:8">
@@ -13236,7 +13236,7 @@
         <v>-379797.0432780339</v>
       </c>
       <c r="H494">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="495" spans="1:8">
@@ -13262,7 +13262,7 @@
         <v>-391147.5835780339</v>
       </c>
       <c r="H495">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="496" spans="1:8">
@@ -13288,7 +13288,7 @@
         <v>-376492.7417780339</v>
       </c>
       <c r="H496">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="497" spans="1:8">
@@ -13314,7 +13314,7 @@
         <v>-380017.9417780339</v>
       </c>
       <c r="H497">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="498" spans="1:8">
@@ -13340,7 +13340,7 @@
         <v>-337215.3529780339</v>
       </c>
       <c r="H498">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="499" spans="1:8">
@@ -13366,7 +13366,7 @@
         <v>-337215.3529780339</v>
       </c>
       <c r="H499">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="500" spans="1:8">
@@ -13392,7 +13392,7 @@
         <v>-372448.138878034</v>
       </c>
       <c r="H500">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="501" spans="1:8">
@@ -13418,7 +13418,7 @@
         <v>-372448.138878034</v>
       </c>
       <c r="H501">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="502" spans="1:8">
@@ -13444,7 +13444,7 @@
         <v>-284815.6189780339</v>
       </c>
       <c r="H502">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="503" spans="1:8">
@@ -13470,7 +13470,7 @@
         <v>-991508.5713780338</v>
       </c>
       <c r="H503">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="504" spans="1:8">
@@ -13496,7 +13496,7 @@
         <v>-971793.0245413538</v>
       </c>
       <c r="H504">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="505" spans="1:8">
@@ -13522,7 +13522,7 @@
         <v>-1392442.119341354</v>
       </c>
       <c r="H505">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="506" spans="1:8">
@@ -13548,7 +13548,7 @@
         <v>-1146081.039341354</v>
       </c>
       <c r="H506">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="507" spans="1:8">
@@ -13574,7 +13574,7 @@
         <v>-1145862.902086454</v>
       </c>
       <c r="H507">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="508" spans="1:8">
@@ -13600,7 +13600,7 @@
         <v>-1146973.195786454</v>
       </c>
       <c r="H508">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="509" spans="1:8">
@@ -13626,7 +13626,7 @@
         <v>-1147111.399186454</v>
       </c>
       <c r="H509">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="510" spans="1:8">
@@ -13652,7 +13652,7 @@
         <v>-1059957.177186454</v>
       </c>
       <c r="H510">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="511" spans="1:8">
@@ -13678,7 +13678,7 @@
         <v>-1057491.521686454</v>
       </c>
       <c r="H511">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="512" spans="1:8">
@@ -13704,7 +13704,7 @@
         <v>-1098286.639716954</v>
       </c>
       <c r="H512">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="513" spans="1:8">
@@ -13730,7 +13730,7 @@
         <v>-1133734.407016953</v>
       </c>
       <c r="H513">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="514" spans="1:8">
@@ -13756,7 +13756,7 @@
         <v>-1133734.407016953</v>
       </c>
       <c r="H514">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="515" spans="1:8">
@@ -13782,7 +13782,7 @@
         <v>-1126834.307016953</v>
       </c>
       <c r="H515">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="516" spans="1:8">
@@ -13808,7 +13808,7 @@
         <v>-1312020.784216953</v>
       </c>
       <c r="H516">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="517" spans="1:8">
@@ -13834,7 +13834,7 @@
         <v>-1311563.425216954</v>
       </c>
       <c r="H517">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="518" spans="1:8">
@@ -13860,7 +13860,7 @@
         <v>-738224.0704169535</v>
       </c>
       <c r="H518">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="519" spans="1:8">
@@ -13886,7 +13886,7 @@
         <v>-738249.0704169535</v>
       </c>
       <c r="H519">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="520" spans="1:8">
@@ -13964,7 +13964,7 @@
         <v>-2486763.131216954</v>
       </c>
       <c r="H522">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="523" spans="1:8">
@@ -14146,7 +14146,7 @@
         <v>-2338933.164949464</v>
       </c>
       <c r="H529">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="530" spans="1:8">
@@ -14302,7 +14302,7 @@
         <v>-2318864.911171584</v>
       </c>
       <c r="H535">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="536" spans="1:8">
@@ -14380,7 +14380,7 @@
         <v>-2175594.300871584</v>
       </c>
       <c r="H538">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="539" spans="1:8">
@@ -14406,7 +14406,7 @@
         <v>-2446334.437771584</v>
       </c>
       <c r="H539">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="540" spans="1:8">
@@ -14432,7 +14432,7 @@
         <v>-2343407.931271584</v>
       </c>
       <c r="H540">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="541" spans="1:8">
@@ -14458,7 +14458,7 @@
         <v>-353163.5883715837</v>
       </c>
       <c r="H541">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="542" spans="1:8">
@@ -14484,7 +14484,7 @@
         <v>-530521.2832715837</v>
       </c>
       <c r="H542">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="543" spans="1:8">
@@ -14510,7 +14510,7 @@
         <v>-520055.5708715837</v>
       </c>
       <c r="H543">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="544" spans="1:8">
@@ -14536,7 +14536,7 @@
         <v>-520055.5708715837</v>
       </c>
       <c r="H544">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="545" spans="1:8">
@@ -14562,7 +14562,7 @@
         <v>-520055.5708715837</v>
       </c>
       <c r="H545">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="546" spans="1:8">
@@ -14588,7 +14588,7 @@
         <v>-520085.0549715837</v>
       </c>
       <c r="H546">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="547" spans="1:8">
@@ -14614,7 +14614,7 @@
         <v>-520085.0549715837</v>
       </c>
       <c r="H547">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="548" spans="1:8">
@@ -14640,7 +14640,7 @@
         <v>-494519.5873715837</v>
       </c>
       <c r="H548">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="549" spans="1:8">
@@ -14666,7 +14666,7 @@
         <v>-336928.7698715837</v>
       </c>
       <c r="H549">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="550" spans="1:8">
@@ -14692,7 +14692,7 @@
         <v>-336928.7698715837</v>
       </c>
       <c r="H550">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="551" spans="1:8">
@@ -14718,7 +14718,7 @@
         <v>-341807.4495781837</v>
       </c>
       <c r="H551">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="552" spans="1:8">
@@ -14744,7 +14744,7 @@
         <v>926990.0300456563</v>
       </c>
       <c r="H552">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="553" spans="1:8">
@@ -14770,7 +14770,7 @@
         <v>916990.0300456563</v>
       </c>
       <c r="H553">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="554" spans="1:8">
@@ -14796,7 +14796,7 @@
         <v>914803.4097456563</v>
       </c>
       <c r="H554">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="555" spans="1:8">
@@ -14822,7 +14822,7 @@
         <v>978803.4097456563</v>
       </c>
       <c r="H555">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="556" spans="1:8">
@@ -14848,7 +14848,7 @@
         <v>998303.4097456563</v>
       </c>
       <c r="H556">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="557" spans="1:8">
@@ -14874,7 +14874,7 @@
         <v>886325.3699456563</v>
       </c>
       <c r="H557">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="558" spans="1:8">
@@ -14900,7 +14900,7 @@
         <v>722591.7770456562</v>
       </c>
       <c r="H558">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="559" spans="1:8">
@@ -14926,7 +14926,7 @@
         <v>619713.2311208162</v>
       </c>
       <c r="H559">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="560" spans="1:8">
@@ -14952,7 +14952,7 @@
         <v>619713.2311208162</v>
       </c>
       <c r="H560">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="561" spans="1:8">
@@ -14978,7 +14978,7 @@
         <v>302213.2311208162</v>
       </c>
       <c r="H561">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="562" spans="1:8">
@@ -15004,7 +15004,7 @@
         <v>-346577.3510791837</v>
       </c>
       <c r="H562">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="563" spans="1:8">
@@ -15030,7 +15030,7 @@
         <v>-41020.52297918376</v>
       </c>
       <c r="H563">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="564" spans="1:8">
@@ -15056,7 +15056,7 @@
         <v>-38896.82297918377</v>
       </c>
       <c r="H564">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="565" spans="1:8">
@@ -15082,7 +15082,7 @@
         <v>-157457.8723791838</v>
       </c>
       <c r="H565">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="566" spans="1:8">
@@ -15108,7 +15108,7 @@
         <v>-155957.8723791838</v>
       </c>
       <c r="H566">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="567" spans="1:8">
@@ -15134,7 +15134,7 @@
         <v>-155957.8723791838</v>
       </c>
       <c r="H567">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="568" spans="1:8">
@@ -15160,7 +15160,7 @@
         <v>14553.13312081623</v>
       </c>
       <c r="H568">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="569" spans="1:8">
@@ -15186,7 +15186,7 @@
         <v>14584.24432081623</v>
       </c>
       <c r="H569">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="570" spans="1:8">
@@ -15212,7 +15212,7 @@
         <v>-35415.75567918377</v>
       </c>
       <c r="H570">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="571" spans="1:8">
@@ -15238,7 +15238,7 @@
         <v>669161.6743208163</v>
       </c>
       <c r="H571">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="572" spans="1:8">
@@ -15264,7 +15264,7 @@
         <v>669161.6743208163</v>
       </c>
       <c r="H572">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="573" spans="1:8">
@@ -15290,7 +15290,7 @@
         <v>612630.4184208163</v>
       </c>
       <c r="H573">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="574" spans="1:8">
@@ -15316,7 +15316,7 @@
         <v>1047176.491420816</v>
       </c>
       <c r="H574">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="575" spans="1:8">
@@ -15342,7 +15342,7 @@
         <v>544555.8632208162</v>
       </c>
       <c r="H575">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="576" spans="1:8">
@@ -15368,7 +15368,7 @@
         <v>544655.8632208162</v>
       </c>
       <c r="H576">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="577" spans="1:8">
@@ -15394,7 +15394,7 @@
         <v>544655.8632208162</v>
       </c>
       <c r="H577">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="578" spans="1:8">
@@ -15420,7 +15420,7 @@
         <v>544655.8632208162</v>
       </c>
       <c r="H578">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="579" spans="1:8">
@@ -15446,7 +15446,7 @@
         <v>608376.6332208163</v>
       </c>
       <c r="H579">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="580" spans="1:8">
@@ -15472,7 +15472,7 @@
         <v>608376.6332208163</v>
       </c>
       <c r="H580">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="581" spans="1:8">
@@ -15498,7 +15498,7 @@
         <v>641486.6710208163</v>
       </c>
       <c r="H581">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="582" spans="1:8">
@@ -15524,7 +15524,7 @@
         <v>683277.4210208163</v>
       </c>
       <c r="H582">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="583" spans="1:8">
@@ -15550,7 +15550,7 @@
         <v>683277.4210208163</v>
       </c>
       <c r="H583">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="584" spans="1:8">
@@ -15576,7 +15576,7 @@
         <v>683277.4210208163</v>
       </c>
       <c r="H584">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="585" spans="1:8">
@@ -15602,7 +15602,7 @@
         <v>774371.0593208163</v>
       </c>
       <c r="H585">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="586" spans="1:8">
@@ -15628,7 +15628,7 @@
         <v>1016929.809320816</v>
       </c>
       <c r="H586">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="587" spans="1:8">
@@ -15654,7 +15654,7 @@
         <v>1016929.809320816</v>
       </c>
       <c r="H587">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="588" spans="1:8">
@@ -15680,7 +15680,7 @@
         <v>1016929.809320816</v>
       </c>
       <c r="H588">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="589" spans="1:8">
@@ -15706,7 +15706,7 @@
         <v>1094821.265120816</v>
       </c>
       <c r="H589">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="590" spans="1:8">
@@ -15732,7 +15732,7 @@
         <v>1094821.265120816</v>
       </c>
       <c r="H590">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="591" spans="1:8">
@@ -15758,7 +15758,7 @@
         <v>589555.7069208163</v>
       </c>
       <c r="H591">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="592" spans="1:8">
@@ -15784,7 +15784,7 @@
         <v>734277.7025863663</v>
       </c>
       <c r="H592">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="593" spans="1:8">
@@ -15810,7 +15810,7 @@
         <v>591962.2191863663</v>
       </c>
       <c r="H593">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="594" spans="1:8">
@@ -15836,7 +15836,7 @@
         <v>538403.2992863663</v>
       </c>
       <c r="H594">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="595" spans="1:8">
@@ -15862,7 +15862,7 @@
         <v>579509.7302308163</v>
       </c>
       <c r="H595">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="596" spans="1:8">
@@ -15888,7 +15888,7 @@
         <v>328859.6465308163</v>
       </c>
       <c r="H596">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="597" spans="1:8">
@@ -15914,7 +15914,7 @@
         <v>335548.1684308163</v>
       </c>
       <c r="H597">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="598" spans="1:8">
@@ -15940,7 +15940,7 @@
         <v>561045.7631308163</v>
       </c>
       <c r="H598">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="599" spans="1:8">
@@ -15966,7 +15966,7 @@
         <v>553946.8021308163</v>
       </c>
       <c r="H599">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="600" spans="1:8">
@@ -15992,7 +15992,7 @@
         <v>625670.0351308163</v>
       </c>
       <c r="H600">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="601" spans="1:8">
@@ -16018,7 +16018,7 @@
         <v>625670.0351308163</v>
       </c>
       <c r="H601">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="602" spans="1:8">
@@ -16044,7 +16044,7 @@
         <v>683723.3792912663</v>
       </c>
       <c r="H602">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="603" spans="1:8">
@@ -16070,7 +16070,7 @@
         <v>683723.3792912663</v>
       </c>
       <c r="H603">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="604" spans="1:8">
@@ -16096,7 +16096,7 @@
         <v>627026.3189912663</v>
       </c>
       <c r="H604">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="605" spans="1:8">
@@ -16122,7 +16122,7 @@
         <v>633741.6782912663</v>
       </c>
       <c r="H605">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="606" spans="1:8">
@@ -16148,7 +16148,7 @@
         <v>630662.6217912664</v>
       </c>
       <c r="H606">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="607" spans="1:8">
@@ -16174,7 +16174,7 @@
         <v>630687.0120912663</v>
       </c>
       <c r="H607">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="608" spans="1:8">
@@ -16200,7 +16200,7 @@
         <v>627825.5346912664</v>
       </c>
       <c r="H608">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="609" spans="1:8">
@@ -16226,7 +16226,7 @@
         <v>627825.5346912664</v>
       </c>
       <c r="H609">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="610" spans="1:8">
@@ -16252,7 +16252,7 @@
         <v>564728.3300912664</v>
       </c>
       <c r="H610">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="611" spans="1:8">
@@ -16278,7 +16278,7 @@
         <v>564728.3300912664</v>
       </c>
       <c r="H611">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="612" spans="1:8">
@@ -16304,7 +16304,7 @@
         <v>561868.3300912664</v>
       </c>
       <c r="H612">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="613" spans="1:8">
@@ -16330,7 +16330,7 @@
         <v>561892.7560912664</v>
       </c>
       <c r="H613">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="614" spans="1:8">
@@ -16356,7 +16356,7 @@
         <v>561868.3419912664</v>
       </c>
       <c r="H614">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="615" spans="1:8">
@@ -16382,7 +16382,7 @@
         <v>402047.5748912664</v>
       </c>
       <c r="H615">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="616" spans="1:8">
@@ -16408,7 +16408,7 @@
         <v>374029.5041912664</v>
       </c>
       <c r="H616">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="617" spans="1:8">
@@ -16434,7 +16434,7 @@
         <v>374029.5041912664</v>
       </c>
       <c r="H617">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="618" spans="1:8">
@@ -16460,7 +16460,7 @@
         <v>344109.5218912664</v>
       </c>
       <c r="H618">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="619" spans="1:8">
@@ -16486,7 +16486,7 @@
         <v>344109.5218912664</v>
       </c>
       <c r="H619">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="620" spans="1:8">
@@ -16512,7 +16512,7 @@
         <v>554580.2510864565</v>
       </c>
       <c r="H620">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="621" spans="1:8">
@@ -16538,7 +16538,7 @@
         <v>342792.6237864565</v>
       </c>
       <c r="H621">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="622" spans="1:8">
@@ -16564,7 +16564,7 @@
         <v>342792.6237864565</v>
       </c>
       <c r="H622">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="623" spans="1:8">
@@ -16590,7 +16590,7 @@
         <v>270259.2278864565</v>
       </c>
       <c r="H623">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="624" spans="1:8">
@@ -16616,7 +16616,7 @@
         <v>110831.1516864565</v>
       </c>
       <c r="H624">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="625" spans="1:8">
@@ -16642,7 +16642,7 @@
         <v>148016.5469864565</v>
       </c>
       <c r="H625">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="626" spans="1:8">
@@ -16668,7 +16668,7 @@
         <v>155008.0259213465</v>
       </c>
       <c r="H626">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="627" spans="1:8">
@@ -16694,7 +16694,7 @@
         <v>140338.8156213465</v>
       </c>
       <c r="H627">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="628" spans="1:8">
@@ -16720,7 +16720,7 @@
         <v>139933.8353213465</v>
       </c>
       <c r="H628">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="629" spans="1:8">
@@ -16746,7 +16746,7 @@
         <v>139982.7112213465</v>
       </c>
       <c r="H629">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="630" spans="1:8">
@@ -16772,7 +16772,7 @@
         <v>-2733.351378653519</v>
       </c>
       <c r="H630">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="631" spans="1:8">
@@ -16798,7 +16798,7 @@
         <v>-47927.12517865352</v>
       </c>
       <c r="H631">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="632" spans="1:8">
@@ -16824,7 +16824,7 @@
         <v>-44927.12517865352</v>
       </c>
       <c r="H632">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="633" spans="1:8">
@@ -16850,7 +16850,7 @@
         <v>-188781.6760786535</v>
       </c>
       <c r="H633">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="634" spans="1:8">
@@ -16876,7 +16876,7 @@
         <v>-137314.9260786535</v>
       </c>
       <c r="H634">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="635" spans="1:8">
@@ -16902,7 +16902,7 @@
         <v>-137314.9260786535</v>
       </c>
       <c r="H635">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="636" spans="1:8">
@@ -16928,7 +16928,7 @@
         <v>-165142.8320786535</v>
       </c>
       <c r="H636">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="637" spans="1:8">
@@ -16954,7 +16954,7 @@
         <v>-165142.8320786535</v>
       </c>
       <c r="H637">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="638" spans="1:8">
@@ -16980,7 +16980,7 @@
         <v>-178381.4045786535</v>
       </c>
       <c r="H638">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="639" spans="1:8">
@@ -17006,7 +17006,7 @@
         <v>-165241.0666786535</v>
       </c>
       <c r="H639">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="640" spans="1:8">
@@ -17032,7 +17032,7 @@
         <v>-213630.7119786535</v>
       </c>
       <c r="H640">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="641" spans="1:8">
@@ -17058,7 +17058,7 @@
         <v>-213596.4485786535</v>
       </c>
       <c r="H641">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="642" spans="1:8">
@@ -17084,7 +17084,7 @@
         <v>-296078.4485786535</v>
       </c>
       <c r="H642">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="643" spans="1:8">
@@ -17110,7 +17110,7 @@
         <v>-296078.4485786535</v>
       </c>
       <c r="H643">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="644" spans="1:8">
@@ -17136,7 +17136,7 @@
         <v>-296053.9746786535</v>
       </c>
       <c r="H644">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="645" spans="1:8">
@@ -17162,7 +17162,7 @@
         <v>-296053.9746786535</v>
       </c>
       <c r="H645">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="646" spans="1:8">
@@ -17188,7 +17188,7 @@
         <v>-296021.0930786535</v>
       </c>
       <c r="H646">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="647" spans="1:8">
@@ -17214,7 +17214,7 @@
         <v>-296061.6577786535</v>
       </c>
       <c r="H647">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="648" spans="1:8">
@@ -17240,7 +17240,7 @@
         <v>-296037.1958786535</v>
       </c>
       <c r="H648">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="649" spans="1:8">
@@ -17266,7 +17266,7 @@
         <v>-396061.6577786535</v>
       </c>
       <c r="H649">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="650" spans="1:8">
@@ -17292,7 +17292,7 @@
         <v>-395816.6577786535</v>
       </c>
       <c r="H650">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="651" spans="1:8">
@@ -17318,7 +17318,7 @@
         <v>-475546.6136786535</v>
       </c>
       <c r="H651">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="652" spans="1:8">
@@ -17344,7 +17344,7 @@
         <v>-414576.3195786535</v>
       </c>
       <c r="H652">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="653" spans="1:8">
@@ -17370,7 +17370,7 @@
         <v>-406570.9278786535</v>
       </c>
       <c r="H653">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="654" spans="1:8">
@@ -17396,7 +17396,7 @@
         <v>-414626.1332786535</v>
       </c>
       <c r="H654">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="655" spans="1:8">
@@ -17422,7 +17422,7 @@
         <v>-384648.7730786535</v>
       </c>
       <c r="H655">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="656" spans="1:8">
@@ -17448,7 +17448,7 @@
         <v>-398062.5730786535</v>
       </c>
       <c r="H656">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="657" spans="1:8">
@@ -17474,7 +17474,7 @@
         <v>-398062.5730786535</v>
       </c>
       <c r="H657">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="658" spans="1:8">
@@ -17500,7 +17500,7 @@
         <v>-397249.7340786535</v>
       </c>
       <c r="H658">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="659" spans="1:8">
@@ -17526,7 +17526,7 @@
         <v>-397249.7340786535</v>
       </c>
       <c r="H659">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="660" spans="1:8">
@@ -17552,7 +17552,7 @@
         <v>-397423.7340786535</v>
       </c>
       <c r="H660">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="661" spans="1:8">
@@ -17578,7 +17578,7 @@
         <v>-397423.7340786535</v>
       </c>
       <c r="H661">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="662" spans="1:8">
@@ -17604,7 +17604,7 @@
         <v>-397399.1510786535</v>
       </c>
       <c r="H662">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="663" spans="1:8">
@@ -17630,7 +17630,7 @@
         <v>-412941.3732786535</v>
       </c>
       <c r="H663">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="664" spans="1:8">
@@ -17656,7 +17656,7 @@
         <v>-412941.3732786535</v>
       </c>
       <c r="H664">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="665" spans="1:8">
@@ -17682,7 +17682,7 @@
         <v>-412819.3801515136</v>
       </c>
       <c r="H665">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="666" spans="1:8">
@@ -17708,7 +17708,7 @@
         <v>-412494.7934515136</v>
       </c>
       <c r="H666">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="667" spans="1:8">
@@ -17734,7 +17734,7 @@
         <v>-412494.7934515136</v>
       </c>
       <c r="H667">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="668" spans="1:8">
@@ -17760,7 +17760,7 @@
         <v>-267461.0529515136</v>
       </c>
       <c r="H668">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="669" spans="1:8">
@@ -17786,7 +17786,7 @@
         <v>-267742.3029515136</v>
       </c>
       <c r="H669">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="670" spans="1:8">
@@ -17812,7 +17812,7 @@
         <v>-219968.0311515136</v>
       </c>
       <c r="H670">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="671" spans="1:8">
@@ -17838,7 +17838,7 @@
         <v>-264577.5043515136</v>
       </c>
       <c r="H671">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="672" spans="1:8">
@@ -17864,7 +17864,7 @@
         <v>-264577.5043515136</v>
       </c>
       <c r="H672">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="673" spans="1:8">
@@ -17890,7 +17890,7 @@
         <v>-264919.8705515136</v>
       </c>
       <c r="H673">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="674" spans="1:8">
@@ -17916,7 +17916,7 @@
         <v>-221540.6547515136</v>
       </c>
       <c r="H674">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="675" spans="1:8">
@@ -17942,7 +17942,7 @@
         <v>-361790.2797515136</v>
       </c>
       <c r="H675">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="676" spans="1:8">
@@ -17968,7 +17968,7 @@
         <v>-359769.9097515136</v>
       </c>
       <c r="H676">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="677" spans="1:8">
@@ -17994,7 +17994,7 @@
         <v>-455691.7729009936</v>
       </c>
       <c r="H677">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="678" spans="1:8">
@@ -18020,7 +18020,7 @@
         <v>-428832.6741009936</v>
       </c>
       <c r="H678">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="679" spans="1:8">
@@ -18046,7 +18046,7 @@
         <v>-435496.2714009936</v>
       </c>
       <c r="H679">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="680" spans="1:8">
@@ -18072,7 +18072,7 @@
         <v>-434531.0414009937</v>
       </c>
       <c r="H680">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="681" spans="1:8">
@@ -18098,7 +18098,7 @@
         <v>-434531.0414009937</v>
       </c>
       <c r="H681">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="682" spans="1:8">
@@ -18124,7 +18124,7 @@
         <v>-439468.5814009936</v>
       </c>
       <c r="H682">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="683" spans="1:8">
@@ -18150,7 +18150,7 @@
         <v>-439468.5814009936</v>
       </c>
       <c r="H683">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="684" spans="1:8">
@@ -18176,7 +18176,7 @@
         <v>-439468.5814009936</v>
       </c>
       <c r="H684">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="685" spans="1:8">
@@ -18202,7 +18202,7 @@
         <v>-518979.4902009936</v>
       </c>
       <c r="H685">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="686" spans="1:8">
@@ -18228,7 +18228,7 @@
         <v>-612862.4150009936</v>
       </c>
       <c r="H686">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="687" spans="1:8">
@@ -18254,7 +18254,7 @@
         <v>-612862.4150009936</v>
       </c>
       <c r="H687">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="688" spans="1:8">
@@ -18280,7 +18280,7 @@
         <v>-612862.4150009936</v>
       </c>
       <c r="H688">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="689" spans="1:8">
@@ -18306,7 +18306,7 @@
         <v>-412340.9150009936</v>
       </c>
       <c r="H689">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="690" spans="1:8">
@@ -18332,7 +18332,7 @@
         <v>-412340.9150009936</v>
       </c>
       <c r="H690">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="691" spans="1:8">
@@ -18358,7 +18358,7 @@
         <v>-412340.9150009936</v>
       </c>
       <c r="H691">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="692" spans="1:8">
@@ -18384,7 +18384,7 @@
         <v>-402353.6114009937</v>
       </c>
       <c r="H692">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="693" spans="1:8">
@@ -18410,7 +18410,7 @@
         <v>-402353.6114009937</v>
       </c>
       <c r="H693">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="694" spans="1:8">
@@ -18436,7 +18436,7 @@
         <v>-402353.6114009937</v>
       </c>
       <c r="H694">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="695" spans="1:8">
@@ -18462,7 +18462,7 @@
         <v>-665618.0183009936</v>
       </c>
       <c r="H695">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="696" spans="1:8">
@@ -18488,7 +18488,7 @@
         <v>-662592.8706632036</v>
       </c>
       <c r="H696">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="697" spans="1:8">
@@ -18514,7 +18514,7 @@
         <v>-683966.1005632037</v>
       </c>
       <c r="H697">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="698" spans="1:8">
@@ -18540,7 +18540,7 @@
         <v>-683966.1005632037</v>
       </c>
       <c r="H698">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="699" spans="1:8">
@@ -18566,7 +18566,7 @@
         <v>-615610.9587419537</v>
       </c>
       <c r="H699">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="700" spans="1:8">
@@ -18592,7 +18592,7 @@
         <v>-625610.9587419537</v>
       </c>
       <c r="H700">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="701" spans="1:8">
@@ -18618,7 +18618,7 @@
         <v>-346538.3552419537</v>
       </c>
       <c r="H701">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="702" spans="1:8">
@@ -18644,7 +18644,7 @@
         <v>-42787.33365373366</v>
       </c>
       <c r="H702">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="703" spans="1:8">
@@ -18670,7 +18670,7 @@
         <v>-42787.33365373366</v>
       </c>
       <c r="H703">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="704" spans="1:8">
@@ -18696,7 +18696,7 @@
         <v>-42787.33365373366</v>
       </c>
       <c r="H704">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="705" spans="1:8">
@@ -18722,7 +18722,7 @@
         <v>-55927.67155373366</v>
       </c>
       <c r="H705">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="706" spans="1:8">
@@ -18748,7 +18748,7 @@
         <v>-55927.67155373366</v>
       </c>
       <c r="H706">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="707" spans="1:8">
@@ -18774,7 +18774,7 @@
         <v>-55927.67155373366</v>
       </c>
       <c r="H707">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="708" spans="1:8">
@@ -18800,7 +18800,7 @@
         <v>-112279.2611537336</v>
       </c>
       <c r="H708">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="709" spans="1:8">
@@ -18826,7 +18826,7 @@
         <v>-131248.6192537337</v>
       </c>
       <c r="H709">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="710" spans="1:8">
@@ -18852,7 +18852,7 @@
         <v>586397.9805462663</v>
       </c>
       <c r="H710">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="711" spans="1:8">
@@ -18878,7 +18878,7 @@
         <v>586397.9805462663</v>
       </c>
       <c r="H711">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="712" spans="1:8">
@@ -18904,7 +18904,7 @@
         <v>585227.8211462663</v>
       </c>
       <c r="H712">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="713" spans="1:8">
@@ -18930,7 +18930,7 @@
         <v>585227.8211462663</v>
       </c>
       <c r="H713">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="714" spans="1:8">
@@ -18956,7 +18956,7 @@
         <v>665370.8210462662</v>
       </c>
       <c r="H714">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="715" spans="1:8">
@@ -18982,7 +18982,7 @@
         <v>603148.9972462662</v>
       </c>
       <c r="H715">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="716" spans="1:8">
@@ -19008,7 +19008,7 @@
         <v>618009.9793426362</v>
       </c>
       <c r="H716">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="717" spans="1:8">
@@ -19034,7 +19034,7 @@
         <v>612609.9793426362</v>
       </c>
       <c r="H717">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="718" spans="1:8">
@@ -19060,7 +19060,7 @@
         <v>228704.8340426362</v>
       </c>
       <c r="H718">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="719" spans="1:8">
@@ -19086,7 +19086,7 @@
         <v>228704.8340426362</v>
       </c>
       <c r="H719">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="720" spans="1:8">
@@ -19112,7 +19112,7 @@
         <v>229686.6700760162</v>
       </c>
       <c r="H720">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="721" spans="1:8">
@@ -19138,7 +19138,7 @@
         <v>202332.9128760162</v>
       </c>
       <c r="H721">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="722" spans="1:8">
@@ -19164,7 +19164,7 @@
         <v>-217566.9374297837</v>
       </c>
       <c r="H722">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="723" spans="1:8">
@@ -19190,7 +19190,7 @@
         <v>-218810.0528297838</v>
       </c>
       <c r="H723">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="724" spans="1:8">
@@ -19216,7 +19216,7 @@
         <v>-218947.2701297837</v>
       </c>
       <c r="H724">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="725" spans="1:8">
@@ -19242,7 +19242,7 @@
         <v>-218947.2701297837</v>
       </c>
       <c r="H725">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="726" spans="1:8">
@@ -19268,7 +19268,7 @@
         <v>-213654.2801297838</v>
       </c>
       <c r="H726">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="727" spans="1:8">
@@ -19294,7 +19294,7 @@
         <v>-213654.2801297838</v>
       </c>
       <c r="H727">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="728" spans="1:8">
@@ -19320,7 +19320,7 @@
         <v>-229982.0526297837</v>
       </c>
       <c r="H728">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="729" spans="1:8">
@@ -19346,7 +19346,7 @@
         <v>-871843.6331297838</v>
       </c>
       <c r="H729">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="730" spans="1:8">
@@ -19372,7 +19372,7 @@
         <v>-1968881.504129784</v>
       </c>
       <c r="H730">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="731" spans="1:8">
@@ -19684,7 +19684,7 @@
         <v>-15128955.32225749</v>
       </c>
       <c r="H742">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="743" spans="1:8">
@@ -21634,7 +21634,7 @@
         <v>-31525515.61526146</v>
       </c>
       <c r="H817">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="818" spans="1:8">
@@ -21790,7 +21790,7 @@
         <v>-32301847.55465255</v>
       </c>
       <c r="H823">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="824" spans="1:8">
@@ -21816,7 +21816,7 @@
         <v>-32301847.55465255</v>
       </c>
       <c r="H824">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="825" spans="1:8">
@@ -21894,7 +21894,7 @@
         <v>-31545381.61215283</v>
       </c>
       <c r="H827">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="828" spans="1:8">
@@ -22232,7 +22232,7 @@
         <v>-31205132.7614653</v>
       </c>
       <c r="H840">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="841" spans="1:8">
@@ -22258,7 +22258,7 @@
         <v>-31429829.1276653</v>
       </c>
       <c r="H841">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="842" spans="1:8">
@@ -22284,7 +22284,7 @@
         <v>-31190313.50715711</v>
       </c>
       <c r="H842">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="843" spans="1:8">
@@ -22310,7 +22310,7 @@
         <v>-31419243.46545711</v>
       </c>
       <c r="H843">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="844" spans="1:8">
@@ -22388,7 +22388,7 @@
         <v>-30522600.67705711</v>
       </c>
       <c r="H846">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="847" spans="1:8">
@@ -22414,7 +22414,7 @@
         <v>-30562942.0770571</v>
       </c>
       <c r="H847">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="848" spans="1:8">
@@ -22440,7 +22440,7 @@
         <v>-31093443.50659043</v>
       </c>
       <c r="H848">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="849" spans="1:8">
@@ -22466,7 +22466,7 @@
         <v>-31474423.36252603</v>
       </c>
       <c r="H849">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="850" spans="1:8">
@@ -22492,7 +22492,7 @@
         <v>-31477238.91342603</v>
       </c>
       <c r="H850">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="851" spans="1:8">
@@ -22518,7 +22518,7 @@
         <v>-31814493.14282604</v>
       </c>
       <c r="H851">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="852" spans="1:8">
@@ -22544,7 +22544,7 @@
         <v>-31814493.14282604</v>
       </c>
       <c r="H852">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="853" spans="1:8">
@@ -22570,7 +22570,7 @@
         <v>-31814493.14282604</v>
       </c>
       <c r="H853">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="854" spans="1:8">
@@ -22622,7 +22622,7 @@
         <v>-31839484.42592604</v>
       </c>
       <c r="H855">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="856" spans="1:8">
@@ -22648,7 +22648,7 @@
         <v>-32016973.01702604</v>
       </c>
       <c r="H856">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="857" spans="1:8">
@@ -22674,7 +22674,7 @@
         <v>-32016973.01702604</v>
       </c>
       <c r="H857">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="858" spans="1:8">
@@ -22700,7 +22700,7 @@
         <v>-33804790.51302604</v>
       </c>
       <c r="H858">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="859" spans="1:8">
@@ -22726,7 +22726,7 @@
         <v>-33599794.55342603</v>
       </c>
       <c r="H859">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="860" spans="1:8">
@@ -22752,7 +22752,7 @@
         <v>-33811354.66952603</v>
       </c>
       <c r="H860">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="861" spans="1:8">
@@ -22778,7 +22778,7 @@
         <v>-32781031.24602603</v>
       </c>
       <c r="H861">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="862" spans="1:8">
@@ -22804,7 +22804,7 @@
         <v>-33343795.21029499</v>
       </c>
       <c r="H862">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="863" spans="1:8">
@@ -22830,7 +22830,7 @@
         <v>-33343795.21029499</v>
       </c>
       <c r="H863">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="864" spans="1:8">
@@ -22856,7 +22856,7 @@
         <v>-33343795.21029499</v>
       </c>
       <c r="H864">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="865" spans="1:8">
@@ -22882,7 +22882,7 @@
         <v>-33343795.21029499</v>
       </c>
       <c r="H865">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="866" spans="1:8">
@@ -22908,7 +22908,7 @@
         <v>-33343795.21029499</v>
       </c>
       <c r="H866">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="867" spans="1:8">
@@ -22934,7 +22934,7 @@
         <v>-32204255.16839499</v>
       </c>
       <c r="H867">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="868" spans="1:8">
@@ -22960,7 +22960,7 @@
         <v>-32216023.62839499</v>
       </c>
       <c r="H868">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="869" spans="1:8">
@@ -22986,7 +22986,7 @@
         <v>-32079041.10902695</v>
       </c>
       <c r="H869">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="870" spans="1:8">
@@ -23012,7 +23012,7 @@
         <v>-32478230.78112695</v>
       </c>
       <c r="H870">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="871" spans="1:8">
@@ -23038,7 +23038,7 @@
         <v>-32582749.69168212</v>
       </c>
       <c r="H871">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="872" spans="1:8">
@@ -23064,7 +23064,7 @@
         <v>-32582749.69168212</v>
       </c>
       <c r="H872">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="873" spans="1:8">
@@ -23090,7 +23090,7 @@
         <v>-32582749.69168212</v>
       </c>
       <c r="H873">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="874" spans="1:8">
@@ -23116,7 +23116,7 @@
         <v>-32692692.26798212</v>
       </c>
       <c r="H874">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="875" spans="1:8">
@@ -23142,7 +23142,7 @@
         <v>-33063761.55528212</v>
       </c>
       <c r="H875">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="876" spans="1:8">
@@ -23610,7 +23610,7 @@
         <v>-32380561.90249772</v>
       </c>
       <c r="H893">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="894" spans="1:8">
@@ -23636,7 +23636,7 @@
         <v>-32711297.60505581</v>
       </c>
       <c r="H894">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="895" spans="1:8">
@@ -23662,7 +23662,7 @@
         <v>-33010690.33829533</v>
       </c>
       <c r="H895">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="896" spans="1:8">
@@ -23688,7 +23688,7 @@
         <v>-34141006.16840449</v>
       </c>
       <c r="H896">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="897" spans="1:8">
@@ -23714,7 +23714,7 @@
         <v>-34297267.65180449</v>
       </c>
       <c r="H897">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="898" spans="1:8">
@@ -23740,7 +23740,7 @@
         <v>-34261500.73330449</v>
       </c>
       <c r="H898">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="899" spans="1:8">
@@ -23766,7 +23766,7 @@
         <v>-34261500.73330449</v>
       </c>
       <c r="H899">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="900" spans="1:8">
@@ -23792,7 +23792,7 @@
         <v>-34261500.73330449</v>
       </c>
       <c r="H900">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="901" spans="1:8">
@@ -23818,7 +23818,7 @@
         <v>-34210850.57998649</v>
       </c>
       <c r="H901">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="902" spans="1:8">
@@ -23844,7 +23844,7 @@
         <v>-34217141.80998649</v>
       </c>
       <c r="H902">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="903" spans="1:8">
@@ -23870,7 +23870,7 @@
         <v>-32798135.17658649</v>
       </c>
       <c r="H903">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="904" spans="1:8">
@@ -23896,7 +23896,7 @@
         <v>-33711919.66728649</v>
       </c>
       <c r="H904">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="905" spans="1:8">
@@ -23922,7 +23922,7 @@
         <v>-33725275.20888648</v>
       </c>
       <c r="H905">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="906" spans="1:8">
@@ -23948,7 +23948,7 @@
         <v>-33725103.66618648</v>
       </c>
       <c r="H906">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="907" spans="1:8">
@@ -23974,7 +23974,7 @@
         <v>-33764842.47348648</v>
       </c>
       <c r="H907">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="908" spans="1:8">
@@ -24000,7 +24000,7 @@
         <v>-33761662.40038648</v>
       </c>
       <c r="H908">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="909" spans="1:8">
@@ -24052,7 +24052,7 @@
         <v>-33860310.11148648</v>
       </c>
       <c r="H910">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="911" spans="1:8">
@@ -24078,7 +24078,7 @@
         <v>-33821770.27698648</v>
       </c>
       <c r="H911">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="912" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-20 TRX ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-20 TRX ohlcv.xlsx
@@ -470,7 +470,7 @@
         <v>-3455019.20265216</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-2423013.06505216</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-2423013.06505216</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-1883519.98232013</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-1815178.03086454</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>-1815178.03086454</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-1775195.58248696</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-1781045.58248696</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>-2148542.10718696</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>-4272063.71735609</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-4015435.15345609</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-4015435.15345609</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-3908657.36625609</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-4222207.437656091</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-4242207.437656091</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-4039287.437656091</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>-3333763.75625609</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>-3483464.355156091</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-3559250.15515609</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-4177065.74945609</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-4219554.529256091</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-3955407.529256091</v>
       </c>
       <c r="H44">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>-4108533.880356091</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-4124863.815956091</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>-4121943.815956091</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>-4146943.947156091</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>-4146943.947156091</v>
       </c>
       <c r="H49">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>-4185613.354756091</v>
       </c>
       <c r="H50">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>-4185613.354756091</v>
       </c>
       <c r="H51">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>-4185613.354756091</v>
       </c>
       <c r="H52">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>-4075732.369956091</v>
       </c>
       <c r="H53">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>-3925857.05785609</v>
       </c>
       <c r="H54">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>-3986633.272756091</v>
       </c>
       <c r="H63">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>-3983433.272756091</v>
       </c>
       <c r="H64">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>-3992097.473856091</v>
       </c>
       <c r="H65">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>-4047197.166356091</v>
       </c>
       <c r="H67">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>-4047197.166356091</v>
       </c>
       <c r="H68">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>-4435009.971256091</v>
       </c>
       <c r="H69">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>-4434982.985656091</v>
       </c>
       <c r="H70">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>-4438982.985656091</v>
       </c>
       <c r="H71">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>-4075562.985656091</v>
       </c>
       <c r="H72">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>-4075971.612556091</v>
       </c>
       <c r="H73">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>-4445480.905007442</v>
       </c>
       <c r="H78">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>-4425480.905007442</v>
       </c>
       <c r="H79">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>-4427080.905007442</v>
       </c>
       <c r="H80">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>-4427080.905007442</v>
       </c>
       <c r="H81">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>-4437080.905007442</v>
       </c>
       <c r="H82">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>-4436697.849207441</v>
       </c>
       <c r="H83">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>-4436697.849207441</v>
       </c>
       <c r="H84">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>-4438142.943107441</v>
       </c>
       <c r="H85">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-4438142.943107441</v>
       </c>
       <c r="H86">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>-4438142.943107441</v>
       </c>
       <c r="H87">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>-4420638.073707441</v>
       </c>
       <c r="H88">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>-4420638.073707441</v>
       </c>
       <c r="H89">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>-4420638.073707441</v>
       </c>
       <c r="H90">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>-4431820.143707441</v>
       </c>
       <c r="H91">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>-4431820.143707441</v>
       </c>
       <c r="H92">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-4616680.382107441</v>
       </c>
       <c r="H93">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-4615060.602107441</v>
       </c>
       <c r="H94">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-4549111.702107441</v>
       </c>
       <c r="H95">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-4549111.702107441</v>
       </c>
       <c r="H96">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-4549801.547407441</v>
       </c>
       <c r="H97">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>-4524202.118407441</v>
       </c>
       <c r="H98">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>-4524202.118407441</v>
       </c>
       <c r="H99">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>-4615716.120407442</v>
       </c>
       <c r="H100">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-4408097.120407442</v>
       </c>
       <c r="H101">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>-4512975.722207442</v>
       </c>
       <c r="H102">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>-4335755.736707442</v>
       </c>
       <c r="H103">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>-4335755.736707442</v>
       </c>
       <c r="H104">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>-4389905.594107442</v>
       </c>
       <c r="H105">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-4390163.608707442</v>
       </c>
       <c r="H106">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-4373609.910643922</v>
       </c>
       <c r="H107">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>-4040033.910643922</v>
       </c>
       <c r="H108">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>-4041977.760643922</v>
       </c>
       <c r="H109">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>-3881045.879543922</v>
       </c>
       <c r="H110">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>-4684778.159443922</v>
       </c>
       <c r="H111">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>-4681733.831743922</v>
       </c>
       <c r="H112">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>-4662299.831743922</v>
       </c>
       <c r="H113">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>-4662299.831743922</v>
       </c>
       <c r="H114">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>-4662299.831743922</v>
       </c>
       <c r="H115">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>-4662299.831743922</v>
       </c>
       <c r="H116">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>-4662299.831743922</v>
       </c>
       <c r="H117">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>-4663154.011743922</v>
       </c>
       <c r="H118">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>-4663154.011743922</v>
       </c>
       <c r="H119">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>-4663154.011743922</v>
       </c>
       <c r="H120">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>-4092872.317343922</v>
       </c>
       <c r="H121">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>-4038770.903843922</v>
       </c>
       <c r="H122">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>-4041402.453843922</v>
       </c>
       <c r="H123">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>-4041402.453843922</v>
       </c>
       <c r="H124">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>-4041402.453843922</v>
       </c>
       <c r="H125">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>-4016588.871754372</v>
       </c>
       <c r="H128">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>-4064360.965054372</v>
       </c>
       <c r="H129">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>-4024356.747554372</v>
       </c>
       <c r="H130">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>-4024356.747554372</v>
       </c>
       <c r="H131">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>-4022783.187754372</v>
       </c>
       <c r="H132">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>-4022783.187754372</v>
       </c>
       <c r="H133">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>-4452671.249754372</v>
       </c>
       <c r="H134">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>-4453314.174554372</v>
       </c>
       <c r="H135">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>-4561133.102054372</v>
       </c>
       <c r="H136">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>-4561133.102054372</v>
       </c>
       <c r="H137">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>-4566888.676854372</v>
       </c>
       <c r="H138">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>-4577105.006854372</v>
       </c>
       <c r="H139">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>-4577080.006854372</v>
       </c>
       <c r="H140">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>-4577080.006854372</v>
       </c>
       <c r="H141">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>-4622182.117254372</v>
       </c>
       <c r="H142">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>-4654973.902654372</v>
       </c>
       <c r="H143">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>-4656612.042654372</v>
       </c>
       <c r="H144">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>-4656612.042654372</v>
       </c>
       <c r="H145">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>-4659021.753854372</v>
       </c>
       <c r="H146">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>-4651590.826954371</v>
       </c>
       <c r="H147">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>-4452972.880054371</v>
       </c>
       <c r="H148">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>-4452972.880054371</v>
       </c>
       <c r="H149">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>-4452972.880054371</v>
       </c>
       <c r="H150">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>-4452972.880054371</v>
       </c>
       <c r="H151">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>-4452972.880054371</v>
       </c>
       <c r="H152">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>-4349316.946154372</v>
       </c>
       <c r="H153">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>-4333646.146554372</v>
       </c>
       <c r="H154">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>-4333646.146554372</v>
       </c>
       <c r="H155">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>-4333646.146554372</v>
       </c>
       <c r="H156">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>-4333646.146554372</v>
       </c>
       <c r="H157">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>-4333646.146554372</v>
       </c>
       <c r="H158">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>-4333646.146554372</v>
       </c>
       <c r="H159">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>-4333646.146554372</v>
       </c>
       <c r="H160">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>-4334646.146554372</v>
       </c>
       <c r="H161">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>-4334646.146554372</v>
       </c>
       <c r="H162">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>-4351953.430354373</v>
       </c>
       <c r="H163">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>-4351953.430354373</v>
       </c>
       <c r="H164">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>-4351953.430354373</v>
       </c>
       <c r="H165">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>-4351953.430354373</v>
       </c>
       <c r="H166">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>-3232020.268284434</v>
       </c>
       <c r="H207">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>-1909727.639984434</v>
       </c>
       <c r="H208">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>-2175869.375884434</v>
       </c>
       <c r="H209">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>-2148394.524984434</v>
       </c>
       <c r="H210">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>-1919741.641384434</v>
       </c>
       <c r="H212">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>-1866741.641384434</v>
       </c>
       <c r="H213">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>-1811803.369779504</v>
       </c>
       <c r="H214">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>-1756494.154179504</v>
       </c>
       <c r="H215">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>-2056269.597079504</v>
       </c>
       <c r="H216">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>-2037439.890679504</v>
       </c>
       <c r="H217">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>-2879501.852748384</v>
       </c>
       <c r="H278">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>-2716816.918748384</v>
       </c>
       <c r="H285">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>-2292101.552048384</v>
       </c>
       <c r="H290">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -7958,7 +7958,7 @@
         <v>-2292101.552048384</v>
       </c>
       <c r="H291">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>-2296578.696848384</v>
       </c>
       <c r="H292">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>-2296578.696848384</v>
       </c>
       <c r="H293">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8036,7 +8036,7 @@
         <v>-2296578.696848384</v>
       </c>
       <c r="H294">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -8062,7 +8062,7 @@
         <v>-2383445.918748384</v>
       </c>
       <c r="H295">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -8088,7 +8088,7 @@
         <v>-2383445.918748384</v>
       </c>
       <c r="H296">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>-2383445.918748384</v>
       </c>
       <c r="H297">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -8140,7 +8140,7 @@
         <v>-2383445.918748384</v>
       </c>
       <c r="H298">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>-2433431.371448384</v>
       </c>
       <c r="H299">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8244,7 +8244,7 @@
         <v>-2443450.349019884</v>
       </c>
       <c r="H302">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>-2231427.833719884</v>
       </c>
       <c r="H303">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -8296,7 +8296,7 @@
         <v>-1867920.236919884</v>
       </c>
       <c r="H304">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -8322,7 +8322,7 @@
         <v>-1462065.283419884</v>
       </c>
       <c r="H305">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -8348,7 +8348,7 @@
         <v>-1686175.716219884</v>
       </c>
       <c r="H306">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -8374,7 +8374,7 @@
         <v>-1685974.913919884</v>
       </c>
       <c r="H307">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -8400,7 +8400,7 @@
         <v>-1693680.283419884</v>
       </c>
       <c r="H308">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -8426,7 +8426,7 @@
         <v>-1632146.742619884</v>
       </c>
       <c r="H309">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -8452,7 +8452,7 @@
         <v>-1432146.742619884</v>
       </c>
       <c r="H310">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -8478,7 +8478,7 @@
         <v>-1432146.742619884</v>
       </c>
       <c r="H311">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -8504,7 +8504,7 @@
         <v>-1432146.742619884</v>
       </c>
       <c r="H312">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -8530,7 +8530,7 @@
         <v>-1432146.742619884</v>
       </c>
       <c r="H313">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -8556,7 +8556,7 @@
         <v>-1380893.338329894</v>
       </c>
       <c r="H314">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -8582,7 +8582,7 @@
         <v>-1684474.956129894</v>
       </c>
       <c r="H315">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -8608,7 +8608,7 @@
         <v>-1875556.635429894</v>
       </c>
       <c r="H316">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -8634,7 +8634,7 @@
         <v>-1875556.635429894</v>
       </c>
       <c r="H317">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -8660,7 +8660,7 @@
         <v>-1875556.635429894</v>
       </c>
       <c r="H318">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -8686,7 +8686,7 @@
         <v>-1875556.635429894</v>
       </c>
       <c r="H319">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -8712,7 +8712,7 @@
         <v>-1907750.436329894</v>
       </c>
       <c r="H320">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -8738,7 +8738,7 @@
         <v>-2177229.209029894</v>
       </c>
       <c r="H321">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -8764,7 +8764,7 @@
         <v>-2151359.719329894</v>
       </c>
       <c r="H322">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -8790,7 +8790,7 @@
         <v>-2311158.405729894</v>
       </c>
       <c r="H323">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -8816,7 +8816,7 @@
         <v>-2102289.013429894</v>
       </c>
       <c r="H324">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -8842,7 +8842,7 @@
         <v>-2102289.013429894</v>
       </c>
       <c r="H325">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -8868,7 +8868,7 @@
         <v>-2021072.690429894</v>
       </c>
       <c r="H326">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -8894,7 +8894,7 @@
         <v>-2150289.772904394</v>
       </c>
       <c r="H327">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -8920,7 +8920,7 @@
         <v>-2150289.772904394</v>
       </c>
       <c r="H328">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -8946,7 +8946,7 @@
         <v>-184274.2791943841</v>
       </c>
       <c r="H329">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -8972,7 +8972,7 @@
         <v>-183405.3189943841</v>
       </c>
       <c r="H330">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -8998,7 +8998,7 @@
         <v>-183405.3189943841</v>
       </c>
       <c r="H331">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -9024,7 +9024,7 @@
         <v>-333303.0994943841</v>
       </c>
       <c r="H332">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -9050,7 +9050,7 @@
         <v>-423154.8204943842</v>
       </c>
       <c r="H333">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -9076,7 +9076,7 @@
         <v>-478981.0540943841</v>
       </c>
       <c r="H334">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -9102,7 +9102,7 @@
         <v>-478981.0540943841</v>
       </c>
       <c r="H335">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -9128,7 +9128,7 @@
         <v>-478981.0540943841</v>
       </c>
       <c r="H336">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -9154,7 +9154,7 @@
         <v>-447679.3503100142</v>
       </c>
       <c r="H337">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -9180,7 +9180,7 @@
         <v>-440994.7945100142</v>
       </c>
       <c r="H338">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -9206,7 +9206,7 @@
         <v>-440994.7945100142</v>
       </c>
       <c r="H339">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -9232,7 +9232,7 @@
         <v>-1124465.431610014</v>
       </c>
       <c r="H340">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -9258,7 +9258,7 @@
         <v>-1124465.431610014</v>
       </c>
       <c r="H341">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -9284,7 +9284,7 @@
         <v>-936638.3647100143</v>
       </c>
       <c r="H342">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -9310,7 +9310,7 @@
         <v>-936638.3647100143</v>
       </c>
       <c r="H343">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -9336,7 +9336,7 @@
         <v>-1245430.699310014</v>
       </c>
       <c r="H344">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -9362,7 +9362,7 @@
         <v>-1335166.779410014</v>
       </c>
       <c r="H345">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -9388,7 +9388,7 @@
         <v>-1355166.779410014</v>
       </c>
       <c r="H346">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -9414,7 +9414,7 @@
         <v>-1345694.063610014</v>
       </c>
       <c r="H347">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -9440,7 +9440,7 @@
         <v>-1406877.360110014</v>
       </c>
       <c r="H348">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -9466,7 +9466,7 @@
         <v>-1429811.270110014</v>
       </c>
       <c r="H349">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -9492,7 +9492,7 @@
         <v>-2189800.069010014</v>
       </c>
       <c r="H350">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -9518,7 +9518,7 @@
         <v>-2398716.324810014</v>
       </c>
       <c r="H351">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -9544,7 +9544,7 @@
         <v>-2398716.324810014</v>
       </c>
       <c r="H352">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -9570,7 +9570,7 @@
         <v>-2796318.964810014</v>
       </c>
       <c r="H353">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -10194,7 +10194,7 @@
         <v>-2062824.456292304</v>
       </c>
       <c r="H377">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -10220,7 +10220,7 @@
         <v>-2079516.003392305</v>
       </c>
       <c r="H378">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -10246,7 +10246,7 @@
         <v>-2079516.003392305</v>
       </c>
       <c r="H379">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -10272,7 +10272,7 @@
         <v>-1936368.925692305</v>
       </c>
       <c r="H380">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -10298,7 +10298,7 @@
         <v>-563254.4179923045</v>
       </c>
       <c r="H381">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -10324,7 +10324,7 @@
         <v>-563254.4179923045</v>
       </c>
       <c r="H382">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -10350,7 +10350,7 @@
         <v>-565376.4179923045</v>
       </c>
       <c r="H383">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -10376,7 +10376,7 @@
         <v>-564868.4179923045</v>
       </c>
       <c r="H384">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -10402,7 +10402,7 @@
         <v>-593283.3779923045</v>
       </c>
       <c r="H385">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -10428,7 +10428,7 @@
         <v>-602271.0797923045</v>
       </c>
       <c r="H386">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -10454,7 +10454,7 @@
         <v>-597354.6493923046</v>
       </c>
       <c r="H387">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -10480,7 +10480,7 @@
         <v>-593724.3593923046</v>
       </c>
       <c r="H388">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -10506,7 +10506,7 @@
         <v>-738266.2416923046</v>
       </c>
       <c r="H389">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -10532,7 +10532,7 @@
         <v>-722098.3298923046</v>
       </c>
       <c r="H390">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -10558,7 +10558,7 @@
         <v>-972098.3298923046</v>
       </c>
       <c r="H391">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -10584,7 +10584,7 @@
         <v>-960559.9298923046</v>
       </c>
       <c r="H392">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -10610,7 +10610,7 @@
         <v>-957211.4298923046</v>
       </c>
       <c r="H393">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -10636,7 +10636,7 @@
         <v>-967763.2598923045</v>
       </c>
       <c r="H394">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -10662,7 +10662,7 @@
         <v>-968291.9603837045</v>
       </c>
       <c r="H395">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -10688,7 +10688,7 @@
         <v>-822599.7486837045</v>
       </c>
       <c r="H396">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -10714,7 +10714,7 @@
         <v>-823152.5906837045</v>
       </c>
       <c r="H397">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -10740,7 +10740,7 @@
         <v>-758486.1545837044</v>
       </c>
       <c r="H398">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -10766,7 +10766,7 @@
         <v>-798734.7021837045</v>
       </c>
       <c r="H399">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -10792,7 +10792,7 @@
         <v>-806574.0366837045</v>
       </c>
       <c r="H400">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -10818,7 +10818,7 @@
         <v>-770776.3951717145</v>
       </c>
       <c r="H401">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -10844,7 +10844,7 @@
         <v>-770776.3951717145</v>
       </c>
       <c r="H402">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -10870,7 +10870,7 @@
         <v>-770776.3951717145</v>
       </c>
       <c r="H403">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -10896,7 +10896,7 @@
         <v>-773178.2851717145</v>
       </c>
       <c r="H404">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -10922,7 +10922,7 @@
         <v>-738053.7798717145</v>
       </c>
       <c r="H405">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -10948,7 +10948,7 @@
         <v>-744160.6692717145</v>
       </c>
       <c r="H406">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -10974,7 +10974,7 @@
         <v>-740065.8592717145</v>
       </c>
       <c r="H407">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -11000,7 +11000,7 @@
         <v>-256091.4948909145</v>
       </c>
       <c r="H408">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -11026,7 +11026,7 @@
         <v>-259200.3148909145</v>
       </c>
       <c r="H409">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -11052,7 +11052,7 @@
         <v>-100363.1409909145</v>
       </c>
       <c r="H410">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -11078,7 +11078,7 @@
         <v>-100332.2953909145</v>
       </c>
       <c r="H411">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -11104,7 +11104,7 @@
         <v>-267197.3779909145</v>
       </c>
       <c r="H412">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -11130,7 +11130,7 @@
         <v>-297246.5180909145</v>
       </c>
       <c r="H413">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -11156,7 +11156,7 @@
         <v>-286983.6637409645</v>
       </c>
       <c r="H414">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -11182,7 +11182,7 @@
         <v>-356666.0168409646</v>
       </c>
       <c r="H415">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -11208,7 +11208,7 @@
         <v>-321140.7387587245</v>
       </c>
       <c r="H416">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -11234,7 +11234,7 @@
         <v>-345393.6621572445</v>
       </c>
       <c r="H417">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -11260,7 +11260,7 @@
         <v>-345393.6621572445</v>
       </c>
       <c r="H418">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -11286,7 +11286,7 @@
         <v>-309590.7682572445</v>
       </c>
       <c r="H419">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -11312,7 +11312,7 @@
         <v>-306741.8378572445</v>
       </c>
       <c r="H420">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -11338,7 +11338,7 @@
         <v>-306741.8378572445</v>
       </c>
       <c r="H421">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -11364,7 +11364,7 @@
         <v>-306741.8378572445</v>
       </c>
       <c r="H422">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -11390,7 +11390,7 @@
         <v>-577297.7590176545</v>
       </c>
       <c r="H423">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -11416,7 +11416,7 @@
         <v>-577297.7590176545</v>
       </c>
       <c r="H424">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -11442,7 +11442,7 @@
         <v>-561563.0806176545</v>
       </c>
       <c r="H425">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -11468,7 +11468,7 @@
         <v>-561763.0806176545</v>
       </c>
       <c r="H426">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -11494,7 +11494,7 @@
         <v>-542330.6058176545</v>
       </c>
       <c r="H427">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -11520,7 +11520,7 @@
         <v>-1292330.837517655</v>
       </c>
       <c r="H428">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -11546,7 +11546,7 @@
         <v>-1292305.837517655</v>
       </c>
       <c r="H429">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -11572,7 +11572,7 @@
         <v>-1396331.880617654</v>
       </c>
       <c r="H430">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -11598,7 +11598,7 @@
         <v>-1196091.880617654</v>
       </c>
       <c r="H431">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -11624,7 +11624,7 @@
         <v>-1196157.711117654</v>
       </c>
       <c r="H432">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -11650,7 +11650,7 @@
         <v>-1196157.711117654</v>
       </c>
       <c r="H433">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -11676,7 +11676,7 @@
         <v>-1398341.567217654</v>
       </c>
       <c r="H434">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -11702,7 +11702,7 @@
         <v>-1351494.815017654</v>
       </c>
       <c r="H435">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -11728,7 +11728,7 @@
         <v>-1451734.279717654</v>
       </c>
       <c r="H436">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -11754,7 +11754,7 @@
         <v>-832218.4425176543</v>
       </c>
       <c r="H437">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -11780,7 +11780,7 @@
         <v>-832218.4425176543</v>
       </c>
       <c r="H438">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -11806,7 +11806,7 @@
         <v>-832218.4425176543</v>
       </c>
       <c r="H439">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -11832,7 +11832,7 @@
         <v>-852984.8270176543</v>
       </c>
       <c r="H440">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -11858,7 +11858,7 @@
         <v>-842168.9508176543</v>
       </c>
       <c r="H441">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -11884,7 +11884,7 @@
         <v>-848375.1308176543</v>
       </c>
       <c r="H442">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -11910,7 +11910,7 @@
         <v>-862984.8346176543</v>
       </c>
       <c r="H443">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -11936,7 +11936,7 @@
         <v>-1032892.209017654</v>
       </c>
       <c r="H444">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -11962,7 +11962,7 @@
         <v>-1028991.119017654</v>
       </c>
       <c r="H445">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -12014,7 +12014,7 @@
         <v>-2495062.527517654</v>
       </c>
       <c r="H447">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -12040,7 +12040,7 @@
         <v>-2486062.527517654</v>
       </c>
       <c r="H448">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -12092,7 +12092,7 @@
         <v>-1868424.546817654</v>
       </c>
       <c r="H450">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -12118,7 +12118,7 @@
         <v>-1868424.546817654</v>
       </c>
       <c r="H451">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -12170,7 +12170,7 @@
         <v>-1833975.721129074</v>
       </c>
       <c r="H453">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -12196,7 +12196,7 @@
         <v>-1858606.122929074</v>
       </c>
       <c r="H454">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -12378,7 +12378,7 @@
         <v>-1113604.479376514</v>
       </c>
       <c r="H461">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -12404,7 +12404,7 @@
         <v>-1113604.479376514</v>
       </c>
       <c r="H462">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -12560,7 +12560,7 @@
         <v>-572422.9493765139</v>
       </c>
       <c r="H468">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="469" spans="1:8">
@@ -12586,7 +12586,7 @@
         <v>-643552.3200765139</v>
       </c>
       <c r="H469">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -12612,7 +12612,7 @@
         <v>-848378.8928765139</v>
       </c>
       <c r="H470">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="471" spans="1:8">
@@ -12638,7 +12638,7 @@
         <v>-846380.8928765139</v>
       </c>
       <c r="H471">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="472" spans="1:8">
@@ -12664,7 +12664,7 @@
         <v>-846318.0480765139</v>
       </c>
       <c r="H472">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="473" spans="1:8">
@@ -12690,7 +12690,7 @@
         <v>-699366.2878543739</v>
       </c>
       <c r="H473">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="474" spans="1:8">
@@ -12716,7 +12716,7 @@
         <v>-699366.2878543739</v>
       </c>
       <c r="H474">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="475" spans="1:8">
@@ -12742,7 +12742,7 @@
         <v>-542497.521454374</v>
       </c>
       <c r="H475">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="476" spans="1:8">
@@ -12768,7 +12768,7 @@
         <v>-547109.6142543739</v>
       </c>
       <c r="H476">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="477" spans="1:8">
@@ -12794,7 +12794,7 @@
         <v>-547109.6142543739</v>
       </c>
       <c r="H477">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="478" spans="1:8">
@@ -12820,7 +12820,7 @@
         <v>-393197.7301543739</v>
       </c>
       <c r="H478">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="479" spans="1:8">
@@ -12846,7 +12846,7 @@
         <v>-393197.7301543739</v>
       </c>
       <c r="H479">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="480" spans="1:8">
@@ -12872,7 +12872,7 @@
         <v>-392926.2247780339</v>
       </c>
       <c r="H480">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="481" spans="1:8">
@@ -12898,7 +12898,7 @@
         <v>-392926.2247780339</v>
       </c>
       <c r="H481">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="482" spans="1:8">
@@ -12924,7 +12924,7 @@
         <v>-476826.9267780339</v>
       </c>
       <c r="H482">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="483" spans="1:8">
@@ -12950,7 +12950,7 @@
         <v>-379981.5819780339</v>
       </c>
       <c r="H483">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="484" spans="1:8">
@@ -12976,7 +12976,7 @@
         <v>-379005.5890780339</v>
       </c>
       <c r="H484">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="485" spans="1:8">
@@ -13002,7 +13002,7 @@
         <v>-387244.5643780339</v>
       </c>
       <c r="H485">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="486" spans="1:8">
@@ -13028,7 +13028,7 @@
         <v>-387244.5643780339</v>
       </c>
       <c r="H486">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="487" spans="1:8">
@@ -13054,7 +13054,7 @@
         <v>-387174.3143780339</v>
       </c>
       <c r="H487">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="488" spans="1:8">
@@ -13080,7 +13080,7 @@
         <v>-387174.3143780339</v>
       </c>
       <c r="H488">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="489" spans="1:8">
@@ -13106,7 +13106,7 @@
         <v>-387174.3143780339</v>
       </c>
       <c r="H489">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="490" spans="1:8">
@@ -13132,7 +13132,7 @@
         <v>-387174.3143780339</v>
       </c>
       <c r="H490">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="491" spans="1:8">
@@ -13158,7 +13158,7 @@
         <v>-379601.4667780339</v>
       </c>
       <c r="H491">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="492" spans="1:8">
@@ -13184,7 +13184,7 @@
         <v>-379601.4667780339</v>
       </c>
       <c r="H492">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="493" spans="1:8">
@@ -13210,7 +13210,7 @@
         <v>-379797.0432780339</v>
       </c>
       <c r="H493">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="494" spans="1:8">
@@ -13236,7 +13236,7 @@
         <v>-379797.0432780339</v>
       </c>
       <c r="H494">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="495" spans="1:8">
@@ -13262,7 +13262,7 @@
         <v>-391147.5835780339</v>
       </c>
       <c r="H495">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="496" spans="1:8">
@@ -13288,7 +13288,7 @@
         <v>-376492.7417780339</v>
       </c>
       <c r="H496">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="497" spans="1:8">
@@ -13314,7 +13314,7 @@
         <v>-380017.9417780339</v>
       </c>
       <c r="H497">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="498" spans="1:8">
@@ -13340,7 +13340,7 @@
         <v>-337215.3529780339</v>
       </c>
       <c r="H498">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="499" spans="1:8">
@@ -13366,7 +13366,7 @@
         <v>-337215.3529780339</v>
       </c>
       <c r="H499">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="500" spans="1:8">
@@ -13392,7 +13392,7 @@
         <v>-372448.138878034</v>
       </c>
       <c r="H500">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="501" spans="1:8">
@@ -13418,7 +13418,7 @@
         <v>-372448.138878034</v>
       </c>
       <c r="H501">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="502" spans="1:8">
@@ -13444,7 +13444,7 @@
         <v>-284815.6189780339</v>
       </c>
       <c r="H502">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="503" spans="1:8">
@@ -13470,7 +13470,7 @@
         <v>-991508.5713780338</v>
       </c>
       <c r="H503">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="504" spans="1:8">
@@ -13496,7 +13496,7 @@
         <v>-971793.0245413538</v>
       </c>
       <c r="H504">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="505" spans="1:8">
@@ -13522,7 +13522,7 @@
         <v>-1392442.119341354</v>
       </c>
       <c r="H505">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="506" spans="1:8">
@@ -13548,7 +13548,7 @@
         <v>-1146081.039341354</v>
       </c>
       <c r="H506">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="507" spans="1:8">
@@ -13574,7 +13574,7 @@
         <v>-1145862.902086454</v>
       </c>
       <c r="H507">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="508" spans="1:8">
@@ -13600,7 +13600,7 @@
         <v>-1146973.195786454</v>
       </c>
       <c r="H508">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="509" spans="1:8">
@@ -13626,7 +13626,7 @@
         <v>-1147111.399186454</v>
       </c>
       <c r="H509">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="510" spans="1:8">
@@ -13652,7 +13652,7 @@
         <v>-1059957.177186454</v>
       </c>
       <c r="H510">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="511" spans="1:8">
@@ -13678,7 +13678,7 @@
         <v>-1057491.521686454</v>
       </c>
       <c r="H511">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="512" spans="1:8">
@@ -13704,7 +13704,7 @@
         <v>-1098286.639716954</v>
       </c>
       <c r="H512">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="513" spans="1:8">
@@ -13730,7 +13730,7 @@
         <v>-1133734.407016953</v>
       </c>
       <c r="H513">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="514" spans="1:8">
@@ -13756,7 +13756,7 @@
         <v>-1133734.407016953</v>
       </c>
       <c r="H514">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="515" spans="1:8">
@@ -13782,7 +13782,7 @@
         <v>-1126834.307016953</v>
       </c>
       <c r="H515">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="516" spans="1:8">
@@ -13834,7 +13834,7 @@
         <v>-1311563.425216954</v>
       </c>
       <c r="H517">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="518" spans="1:8">
@@ -13860,7 +13860,7 @@
         <v>-738224.0704169535</v>
       </c>
       <c r="H518">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="519" spans="1:8">
@@ -13886,7 +13886,7 @@
         <v>-738249.0704169535</v>
       </c>
       <c r="H519">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="520" spans="1:8">
@@ -13912,7 +13912,7 @@
         <v>-731099.4873169535</v>
       </c>
       <c r="H520">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="521" spans="1:8">
@@ -13938,7 +13938,7 @@
         <v>-2471023.623516954</v>
       </c>
       <c r="H521">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="522" spans="1:8">
@@ -13964,7 +13964,7 @@
         <v>-2486763.131216954</v>
       </c>
       <c r="H522">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="523" spans="1:8">
@@ -14198,7 +14198,7 @@
         <v>-2248031.804371584</v>
       </c>
       <c r="H531">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="532" spans="1:8">
@@ -14302,7 +14302,7 @@
         <v>-2318864.911171584</v>
       </c>
       <c r="H535">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="536" spans="1:8">
@@ -14458,7 +14458,7 @@
         <v>-353163.5883715837</v>
       </c>
       <c r="H541">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="542" spans="1:8">
@@ -14484,7 +14484,7 @@
         <v>-530521.2832715837</v>
       </c>
       <c r="H542">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="543" spans="1:8">
@@ -14510,7 +14510,7 @@
         <v>-520055.5708715837</v>
       </c>
       <c r="H543">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="544" spans="1:8">
@@ -14536,7 +14536,7 @@
         <v>-520055.5708715837</v>
       </c>
       <c r="H544">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="545" spans="1:8">
@@ -14562,7 +14562,7 @@
         <v>-520055.5708715837</v>
       </c>
       <c r="H545">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="546" spans="1:8">
@@ -14588,7 +14588,7 @@
         <v>-520085.0549715837</v>
       </c>
       <c r="H546">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="547" spans="1:8">
@@ -14614,7 +14614,7 @@
         <v>-520085.0549715837</v>
       </c>
       <c r="H547">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="548" spans="1:8">
@@ -14666,7 +14666,7 @@
         <v>-336928.7698715837</v>
       </c>
       <c r="H549">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="550" spans="1:8">
@@ -14692,7 +14692,7 @@
         <v>-336928.7698715837</v>
       </c>
       <c r="H550">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="551" spans="1:8">
@@ -14718,7 +14718,7 @@
         <v>-341807.4495781837</v>
       </c>
       <c r="H551">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="552" spans="1:8">
@@ -14744,7 +14744,7 @@
         <v>926990.0300456563</v>
       </c>
       <c r="H552">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="553" spans="1:8">
@@ -14770,7 +14770,7 @@
         <v>916990.0300456563</v>
       </c>
       <c r="H553">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="554" spans="1:8">
@@ -14796,7 +14796,7 @@
         <v>914803.4097456563</v>
       </c>
       <c r="H554">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="555" spans="1:8">
@@ -15628,7 +15628,7 @@
         <v>1016929.809320816</v>
       </c>
       <c r="H586">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="587" spans="1:8">
@@ -15654,7 +15654,7 @@
         <v>1016929.809320816</v>
       </c>
       <c r="H587">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="588" spans="1:8">
@@ -15680,7 +15680,7 @@
         <v>1016929.809320816</v>
       </c>
       <c r="H588">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="589" spans="1:8">
@@ -15706,7 +15706,7 @@
         <v>1094821.265120816</v>
       </c>
       <c r="H589">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="590" spans="1:8">
@@ -15732,7 +15732,7 @@
         <v>1094821.265120816</v>
       </c>
       <c r="H590">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="591" spans="1:8">
@@ -15758,7 +15758,7 @@
         <v>589555.7069208163</v>
       </c>
       <c r="H591">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="592" spans="1:8">
@@ -15836,7 +15836,7 @@
         <v>538403.2992863663</v>
       </c>
       <c r="H594">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="595" spans="1:8">
@@ -15862,7 +15862,7 @@
         <v>579509.7302308163</v>
       </c>
       <c r="H595">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="596" spans="1:8">
@@ -15914,7 +15914,7 @@
         <v>335548.1684308163</v>
       </c>
       <c r="H597">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="598" spans="1:8">
@@ -15940,7 +15940,7 @@
         <v>561045.7631308163</v>
       </c>
       <c r="H598">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="599" spans="1:8">
@@ -15966,7 +15966,7 @@
         <v>553946.8021308163</v>
       </c>
       <c r="H599">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="600" spans="1:8">
@@ -15992,7 +15992,7 @@
         <v>625670.0351308163</v>
       </c>
       <c r="H600">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="601" spans="1:8">
@@ -16018,7 +16018,7 @@
         <v>625670.0351308163</v>
       </c>
       <c r="H601">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="602" spans="1:8">
@@ -16044,7 +16044,7 @@
         <v>683723.3792912663</v>
       </c>
       <c r="H602">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="603" spans="1:8">
@@ -16070,7 +16070,7 @@
         <v>683723.3792912663</v>
       </c>
       <c r="H603">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="604" spans="1:8">
@@ -16096,7 +16096,7 @@
         <v>627026.3189912663</v>
       </c>
       <c r="H604">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="605" spans="1:8">
@@ -16122,7 +16122,7 @@
         <v>633741.6782912663</v>
       </c>
       <c r="H605">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="606" spans="1:8">
@@ -16148,7 +16148,7 @@
         <v>630662.6217912664</v>
       </c>
       <c r="H606">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="607" spans="1:8">
@@ -16174,7 +16174,7 @@
         <v>630687.0120912663</v>
       </c>
       <c r="H607">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="608" spans="1:8">
@@ -16200,7 +16200,7 @@
         <v>627825.5346912664</v>
       </c>
       <c r="H608">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="609" spans="1:8">
@@ -16226,7 +16226,7 @@
         <v>627825.5346912664</v>
       </c>
       <c r="H609">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="610" spans="1:8">
@@ -16252,7 +16252,7 @@
         <v>564728.3300912664</v>
       </c>
       <c r="H610">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="611" spans="1:8">
@@ -16278,7 +16278,7 @@
         <v>564728.3300912664</v>
       </c>
       <c r="H611">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="612" spans="1:8">
@@ -16304,7 +16304,7 @@
         <v>561868.3300912664</v>
       </c>
       <c r="H612">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="613" spans="1:8">
@@ -16330,7 +16330,7 @@
         <v>561892.7560912664</v>
       </c>
       <c r="H613">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="614" spans="1:8">
@@ -16356,7 +16356,7 @@
         <v>561868.3419912664</v>
       </c>
       <c r="H614">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="615" spans="1:8">
@@ -16382,7 +16382,7 @@
         <v>402047.5748912664</v>
       </c>
       <c r="H615">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="616" spans="1:8">
@@ -16408,7 +16408,7 @@
         <v>374029.5041912664</v>
       </c>
       <c r="H616">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="617" spans="1:8">
@@ -16434,7 +16434,7 @@
         <v>374029.5041912664</v>
       </c>
       <c r="H617">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="618" spans="1:8">
@@ -16460,7 +16460,7 @@
         <v>344109.5218912664</v>
       </c>
       <c r="H618">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="619" spans="1:8">
@@ -16486,7 +16486,7 @@
         <v>344109.5218912664</v>
       </c>
       <c r="H619">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="620" spans="1:8">
@@ -16512,7 +16512,7 @@
         <v>554580.2510864565</v>
       </c>
       <c r="H620">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="621" spans="1:8">
@@ -16538,7 +16538,7 @@
         <v>342792.6237864565</v>
       </c>
       <c r="H621">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="622" spans="1:8">
@@ -16564,7 +16564,7 @@
         <v>342792.6237864565</v>
       </c>
       <c r="H622">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="623" spans="1:8">
@@ -16590,7 +16590,7 @@
         <v>270259.2278864565</v>
       </c>
       <c r="H623">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="624" spans="1:8">
@@ -16616,7 +16616,7 @@
         <v>110831.1516864565</v>
       </c>
       <c r="H624">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="625" spans="1:8">
@@ -16642,7 +16642,7 @@
         <v>148016.5469864565</v>
       </c>
       <c r="H625">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="626" spans="1:8">
@@ -16668,7 +16668,7 @@
         <v>155008.0259213465</v>
       </c>
       <c r="H626">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="627" spans="1:8">
@@ -16694,7 +16694,7 @@
         <v>140338.8156213465</v>
       </c>
       <c r="H627">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="628" spans="1:8">
@@ -16720,7 +16720,7 @@
         <v>139933.8353213465</v>
       </c>
       <c r="H628">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="629" spans="1:8">
@@ -16746,7 +16746,7 @@
         <v>139982.7112213465</v>
       </c>
       <c r="H629">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="630" spans="1:8">
@@ -16772,7 +16772,7 @@
         <v>-2733.351378653519</v>
       </c>
       <c r="H630">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="631" spans="1:8">
@@ -16798,7 +16798,7 @@
         <v>-47927.12517865352</v>
       </c>
       <c r="H631">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="632" spans="1:8">
@@ -16824,7 +16824,7 @@
         <v>-44927.12517865352</v>
       </c>
       <c r="H632">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="633" spans="1:8">
@@ -16850,7 +16850,7 @@
         <v>-188781.6760786535</v>
       </c>
       <c r="H633">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="634" spans="1:8">
@@ -16876,7 +16876,7 @@
         <v>-137314.9260786535</v>
       </c>
       <c r="H634">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="635" spans="1:8">
@@ -16902,7 +16902,7 @@
         <v>-137314.9260786535</v>
       </c>
       <c r="H635">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="636" spans="1:8">
@@ -16928,7 +16928,7 @@
         <v>-165142.8320786535</v>
       </c>
       <c r="H636">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="637" spans="1:8">
@@ -16954,7 +16954,7 @@
         <v>-165142.8320786535</v>
       </c>
       <c r="H637">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="638" spans="1:8">
@@ -16980,7 +16980,7 @@
         <v>-178381.4045786535</v>
       </c>
       <c r="H638">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="639" spans="1:8">
@@ -17006,7 +17006,7 @@
         <v>-165241.0666786535</v>
       </c>
       <c r="H639">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="640" spans="1:8">
@@ -17032,7 +17032,7 @@
         <v>-213630.7119786535</v>
       </c>
       <c r="H640">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="641" spans="1:8">
@@ -17058,7 +17058,7 @@
         <v>-213596.4485786535</v>
       </c>
       <c r="H641">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="642" spans="1:8">
@@ -17084,7 +17084,7 @@
         <v>-296078.4485786535</v>
       </c>
       <c r="H642">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="643" spans="1:8">
@@ -17110,7 +17110,7 @@
         <v>-296078.4485786535</v>
       </c>
       <c r="H643">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="644" spans="1:8">
@@ -17136,7 +17136,7 @@
         <v>-296053.9746786535</v>
       </c>
       <c r="H644">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="645" spans="1:8">
@@ -17162,7 +17162,7 @@
         <v>-296053.9746786535</v>
       </c>
       <c r="H645">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="646" spans="1:8">
@@ -17188,7 +17188,7 @@
         <v>-296021.0930786535</v>
       </c>
       <c r="H646">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="647" spans="1:8">
@@ -17214,7 +17214,7 @@
         <v>-296061.6577786535</v>
       </c>
       <c r="H647">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="648" spans="1:8">
@@ -17240,7 +17240,7 @@
         <v>-296037.1958786535</v>
       </c>
       <c r="H648">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="649" spans="1:8">
@@ -17266,7 +17266,7 @@
         <v>-396061.6577786535</v>
       </c>
       <c r="H649">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="650" spans="1:8">
@@ -17292,7 +17292,7 @@
         <v>-395816.6577786535</v>
       </c>
       <c r="H650">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="651" spans="1:8">
@@ -17318,7 +17318,7 @@
         <v>-475546.6136786535</v>
       </c>
       <c r="H651">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="652" spans="1:8">
@@ -17344,7 +17344,7 @@
         <v>-414576.3195786535</v>
       </c>
       <c r="H652">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="653" spans="1:8">
@@ -17370,7 +17370,7 @@
         <v>-406570.9278786535</v>
       </c>
       <c r="H653">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="654" spans="1:8">
@@ -17396,7 +17396,7 @@
         <v>-414626.1332786535</v>
       </c>
       <c r="H654">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="655" spans="1:8">
@@ -17422,7 +17422,7 @@
         <v>-384648.7730786535</v>
       </c>
       <c r="H655">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="656" spans="1:8">
@@ -17448,7 +17448,7 @@
         <v>-398062.5730786535</v>
       </c>
       <c r="H656">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="657" spans="1:8">
@@ -17474,7 +17474,7 @@
         <v>-398062.5730786535</v>
       </c>
       <c r="H657">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="658" spans="1:8">
@@ -17500,7 +17500,7 @@
         <v>-397249.7340786535</v>
       </c>
       <c r="H658">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="659" spans="1:8">
@@ -17526,7 +17526,7 @@
         <v>-397249.7340786535</v>
       </c>
       <c r="H659">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="660" spans="1:8">
@@ -17552,7 +17552,7 @@
         <v>-397423.7340786535</v>
       </c>
       <c r="H660">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="661" spans="1:8">
@@ -17578,7 +17578,7 @@
         <v>-397423.7340786535</v>
       </c>
       <c r="H661">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="662" spans="1:8">
@@ -17604,7 +17604,7 @@
         <v>-397399.1510786535</v>
       </c>
       <c r="H662">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="663" spans="1:8">
@@ -17630,7 +17630,7 @@
         <v>-412941.3732786535</v>
       </c>
       <c r="H663">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="664" spans="1:8">
@@ -17656,7 +17656,7 @@
         <v>-412941.3732786535</v>
       </c>
       <c r="H664">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="665" spans="1:8">
@@ -17682,7 +17682,7 @@
         <v>-412819.3801515136</v>
       </c>
       <c r="H665">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="666" spans="1:8">
@@ -17708,7 +17708,7 @@
         <v>-412494.7934515136</v>
       </c>
       <c r="H666">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="667" spans="1:8">
@@ -17734,7 +17734,7 @@
         <v>-412494.7934515136</v>
       </c>
       <c r="H667">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="668" spans="1:8">
@@ -17760,7 +17760,7 @@
         <v>-267461.0529515136</v>
       </c>
       <c r="H668">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="669" spans="1:8">
@@ -17786,7 +17786,7 @@
         <v>-267742.3029515136</v>
       </c>
       <c r="H669">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="670" spans="1:8">
@@ -17812,7 +17812,7 @@
         <v>-219968.0311515136</v>
       </c>
       <c r="H670">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="671" spans="1:8">
@@ -17838,7 +17838,7 @@
         <v>-264577.5043515136</v>
       </c>
       <c r="H671">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="672" spans="1:8">
@@ -17864,7 +17864,7 @@
         <v>-264577.5043515136</v>
       </c>
       <c r="H672">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="673" spans="1:8">
@@ -17890,7 +17890,7 @@
         <v>-264919.8705515136</v>
       </c>
       <c r="H673">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="674" spans="1:8">
@@ -17916,7 +17916,7 @@
         <v>-221540.6547515136</v>
       </c>
       <c r="H674">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="675" spans="1:8">
@@ -17942,7 +17942,7 @@
         <v>-361790.2797515136</v>
       </c>
       <c r="H675">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="676" spans="1:8">
@@ -17968,7 +17968,7 @@
         <v>-359769.9097515136</v>
       </c>
       <c r="H676">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="677" spans="1:8">
@@ -17994,7 +17994,7 @@
         <v>-455691.7729009936</v>
       </c>
       <c r="H677">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="678" spans="1:8">
@@ -18020,7 +18020,7 @@
         <v>-428832.6741009936</v>
       </c>
       <c r="H678">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="679" spans="1:8">
@@ -18046,7 +18046,7 @@
         <v>-435496.2714009936</v>
       </c>
       <c r="H679">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="680" spans="1:8">
@@ -18072,7 +18072,7 @@
         <v>-434531.0414009937</v>
       </c>
       <c r="H680">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="681" spans="1:8">
@@ -18098,7 +18098,7 @@
         <v>-434531.0414009937</v>
       </c>
       <c r="H681">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="682" spans="1:8">
@@ -18124,7 +18124,7 @@
         <v>-439468.5814009936</v>
       </c>
       <c r="H682">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="683" spans="1:8">
@@ -18150,7 +18150,7 @@
         <v>-439468.5814009936</v>
       </c>
       <c r="H683">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="684" spans="1:8">
@@ -18176,7 +18176,7 @@
         <v>-439468.5814009936</v>
       </c>
       <c r="H684">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="685" spans="1:8">
@@ -18202,7 +18202,7 @@
         <v>-518979.4902009936</v>
       </c>
       <c r="H685">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="686" spans="1:8">
@@ -18228,7 +18228,7 @@
         <v>-612862.4150009936</v>
       </c>
       <c r="H686">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="687" spans="1:8">
@@ -18254,7 +18254,7 @@
         <v>-612862.4150009936</v>
       </c>
       <c r="H687">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="688" spans="1:8">
@@ -18280,7 +18280,7 @@
         <v>-612862.4150009936</v>
       </c>
       <c r="H688">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="689" spans="1:8">
@@ -18306,7 +18306,7 @@
         <v>-412340.9150009936</v>
       </c>
       <c r="H689">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="690" spans="1:8">
@@ -18332,7 +18332,7 @@
         <v>-412340.9150009936</v>
       </c>
       <c r="H690">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="691" spans="1:8">
@@ -18358,7 +18358,7 @@
         <v>-412340.9150009936</v>
       </c>
       <c r="H691">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="692" spans="1:8">
@@ -18384,7 +18384,7 @@
         <v>-402353.6114009937</v>
       </c>
       <c r="H692">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="693" spans="1:8">
@@ -18410,7 +18410,7 @@
         <v>-402353.6114009937</v>
       </c>
       <c r="H693">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="694" spans="1:8">
@@ -18436,7 +18436,7 @@
         <v>-402353.6114009937</v>
       </c>
       <c r="H694">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="695" spans="1:8">
@@ -18462,7 +18462,7 @@
         <v>-665618.0183009936</v>
       </c>
       <c r="H695">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="696" spans="1:8">
@@ -18488,7 +18488,7 @@
         <v>-662592.8706632036</v>
       </c>
       <c r="H696">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="697" spans="1:8">
@@ -18514,7 +18514,7 @@
         <v>-683966.1005632037</v>
       </c>
       <c r="H697">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="698" spans="1:8">
@@ -18540,7 +18540,7 @@
         <v>-683966.1005632037</v>
       </c>
       <c r="H698">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="699" spans="1:8">
@@ -18566,7 +18566,7 @@
         <v>-615610.9587419537</v>
       </c>
       <c r="H699">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="700" spans="1:8">
@@ -18592,7 +18592,7 @@
         <v>-625610.9587419537</v>
       </c>
       <c r="H700">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="701" spans="1:8">
@@ -18618,7 +18618,7 @@
         <v>-346538.3552419537</v>
       </c>
       <c r="H701">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="702" spans="1:8">
@@ -18644,7 +18644,7 @@
         <v>-42787.33365373366</v>
       </c>
       <c r="H702">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="703" spans="1:8">
@@ -18670,7 +18670,7 @@
         <v>-42787.33365373366</v>
       </c>
       <c r="H703">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="704" spans="1:8">
@@ -18696,7 +18696,7 @@
         <v>-42787.33365373366</v>
       </c>
       <c r="H704">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="705" spans="1:8">
@@ -18722,7 +18722,7 @@
         <v>-55927.67155373366</v>
       </c>
       <c r="H705">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="706" spans="1:8">
@@ -18748,7 +18748,7 @@
         <v>-55927.67155373366</v>
       </c>
       <c r="H706">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="707" spans="1:8">
@@ -18774,7 +18774,7 @@
         <v>-55927.67155373366</v>
       </c>
       <c r="H707">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="708" spans="1:8">
@@ -18800,7 +18800,7 @@
         <v>-112279.2611537336</v>
       </c>
       <c r="H708">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="709" spans="1:8">
@@ -18826,7 +18826,7 @@
         <v>-131248.6192537337</v>
       </c>
       <c r="H709">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="710" spans="1:8">
@@ -18852,7 +18852,7 @@
         <v>586397.9805462663</v>
       </c>
       <c r="H710">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="711" spans="1:8">
@@ -18878,7 +18878,7 @@
         <v>586397.9805462663</v>
       </c>
       <c r="H711">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="712" spans="1:8">
@@ -18904,7 +18904,7 @@
         <v>585227.8211462663</v>
       </c>
       <c r="H712">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="713" spans="1:8">
@@ -18930,7 +18930,7 @@
         <v>585227.8211462663</v>
       </c>
       <c r="H713">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="714" spans="1:8">
@@ -18956,7 +18956,7 @@
         <v>665370.8210462662</v>
       </c>
       <c r="H714">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="715" spans="1:8">
@@ -18982,7 +18982,7 @@
         <v>603148.9972462662</v>
       </c>
       <c r="H715">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="716" spans="1:8">
@@ -19008,7 +19008,7 @@
         <v>618009.9793426362</v>
       </c>
       <c r="H716">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="717" spans="1:8">
@@ -19034,7 +19034,7 @@
         <v>612609.9793426362</v>
       </c>
       <c r="H717">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="718" spans="1:8">
@@ -19060,7 +19060,7 @@
         <v>228704.8340426362</v>
       </c>
       <c r="H718">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="719" spans="1:8">
@@ -19086,7 +19086,7 @@
         <v>228704.8340426362</v>
       </c>
       <c r="H719">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="720" spans="1:8">
@@ -19112,7 +19112,7 @@
         <v>229686.6700760162</v>
       </c>
       <c r="H720">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="721" spans="1:8">
@@ -19138,7 +19138,7 @@
         <v>202332.9128760162</v>
       </c>
       <c r="H721">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="722" spans="1:8">
@@ -19164,7 +19164,7 @@
         <v>-217566.9374297837</v>
       </c>
       <c r="H722">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="723" spans="1:8">
@@ -19190,7 +19190,7 @@
         <v>-218810.0528297838</v>
       </c>
       <c r="H723">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="724" spans="1:8">
@@ -19216,7 +19216,7 @@
         <v>-218947.2701297837</v>
       </c>
       <c r="H724">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="725" spans="1:8">
@@ -19242,7 +19242,7 @@
         <v>-218947.2701297837</v>
       </c>
       <c r="H725">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="726" spans="1:8">
@@ -19268,7 +19268,7 @@
         <v>-213654.2801297838</v>
       </c>
       <c r="H726">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="727" spans="1:8">
@@ -19294,7 +19294,7 @@
         <v>-213654.2801297838</v>
       </c>
       <c r="H727">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="728" spans="1:8">
@@ -19320,7 +19320,7 @@
         <v>-229982.0526297837</v>
       </c>
       <c r="H728">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="729" spans="1:8">
@@ -19346,7 +19346,7 @@
         <v>-871843.6331297838</v>
       </c>
       <c r="H729">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="730" spans="1:8">
@@ -19684,7 +19684,7 @@
         <v>-15128955.32225749</v>
       </c>
       <c r="H742">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="743" spans="1:8">
@@ -21634,7 +21634,7 @@
         <v>-31525515.61526146</v>
       </c>
       <c r="H817">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="818" spans="1:8">
@@ -21790,7 +21790,7 @@
         <v>-32301847.55465255</v>
       </c>
       <c r="H823">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="824" spans="1:8">
@@ -21816,7 +21816,7 @@
         <v>-32301847.55465255</v>
       </c>
       <c r="H824">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="825" spans="1:8">
@@ -21894,7 +21894,7 @@
         <v>-31545381.61215283</v>
       </c>
       <c r="H827">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="828" spans="1:8">
@@ -22232,7 +22232,7 @@
         <v>-31205132.7614653</v>
       </c>
       <c r="H840">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="841" spans="1:8">
@@ -22258,7 +22258,7 @@
         <v>-31429829.1276653</v>
       </c>
       <c r="H841">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="842" spans="1:8">
@@ -22284,7 +22284,7 @@
         <v>-31190313.50715711</v>
       </c>
       <c r="H842">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="843" spans="1:8">
@@ -22310,7 +22310,7 @@
         <v>-31419243.46545711</v>
       </c>
       <c r="H843">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="844" spans="1:8">
@@ -22388,7 +22388,7 @@
         <v>-30522600.67705711</v>
       </c>
       <c r="H846">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="847" spans="1:8">
@@ -22414,7 +22414,7 @@
         <v>-30562942.0770571</v>
       </c>
       <c r="H847">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="848" spans="1:8">
@@ -22440,7 +22440,7 @@
         <v>-31093443.50659043</v>
       </c>
       <c r="H848">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="849" spans="1:8">
@@ -22466,7 +22466,7 @@
         <v>-31474423.36252603</v>
       </c>
       <c r="H849">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="850" spans="1:8">
@@ -22492,7 +22492,7 @@
         <v>-31477238.91342603</v>
       </c>
       <c r="H850">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="851" spans="1:8">
@@ -22518,7 +22518,7 @@
         <v>-31814493.14282604</v>
       </c>
       <c r="H851">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="852" spans="1:8">
@@ -22544,7 +22544,7 @@
         <v>-31814493.14282604</v>
       </c>
       <c r="H852">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="853" spans="1:8">
@@ -22570,7 +22570,7 @@
         <v>-31814493.14282604</v>
       </c>
       <c r="H853">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="854" spans="1:8">
@@ -22622,7 +22622,7 @@
         <v>-31839484.42592604</v>
       </c>
       <c r="H855">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="856" spans="1:8">
@@ -22648,7 +22648,7 @@
         <v>-32016973.01702604</v>
       </c>
       <c r="H856">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="857" spans="1:8">
@@ -22674,7 +22674,7 @@
         <v>-32016973.01702604</v>
       </c>
       <c r="H857">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="858" spans="1:8">
@@ -22700,7 +22700,7 @@
         <v>-33804790.51302604</v>
       </c>
       <c r="H858">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="859" spans="1:8">
@@ -22726,7 +22726,7 @@
         <v>-33599794.55342603</v>
       </c>
       <c r="H859">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="860" spans="1:8">
@@ -22752,7 +22752,7 @@
         <v>-33811354.66952603</v>
       </c>
       <c r="H860">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="861" spans="1:8">
@@ -22778,7 +22778,7 @@
         <v>-32781031.24602603</v>
       </c>
       <c r="H861">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="862" spans="1:8">
@@ -22804,7 +22804,7 @@
         <v>-33343795.21029499</v>
       </c>
       <c r="H862">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="863" spans="1:8">
@@ -22830,7 +22830,7 @@
         <v>-33343795.21029499</v>
       </c>
       <c r="H863">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="864" spans="1:8">
@@ -22856,7 +22856,7 @@
         <v>-33343795.21029499</v>
       </c>
       <c r="H864">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="865" spans="1:8">
@@ -22882,7 +22882,7 @@
         <v>-33343795.21029499</v>
       </c>
       <c r="H865">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="866" spans="1:8">
@@ -22908,7 +22908,7 @@
         <v>-33343795.21029499</v>
       </c>
       <c r="H866">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="867" spans="1:8">
@@ -22934,7 +22934,7 @@
         <v>-32204255.16839499</v>
       </c>
       <c r="H867">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="868" spans="1:8">
@@ -22960,7 +22960,7 @@
         <v>-32216023.62839499</v>
       </c>
       <c r="H868">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="869" spans="1:8">
@@ -22986,7 +22986,7 @@
         <v>-32079041.10902695</v>
       </c>
       <c r="H869">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="870" spans="1:8">
@@ -23012,7 +23012,7 @@
         <v>-32478230.78112695</v>
       </c>
       <c r="H870">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="871" spans="1:8">
@@ -23038,7 +23038,7 @@
         <v>-32582749.69168212</v>
       </c>
       <c r="H871">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="872" spans="1:8">
@@ -23064,7 +23064,7 @@
         <v>-32582749.69168212</v>
       </c>
       <c r="H872">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="873" spans="1:8">
@@ -23090,7 +23090,7 @@
         <v>-32582749.69168212</v>
       </c>
       <c r="H873">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="874" spans="1:8">
@@ -23116,7 +23116,7 @@
         <v>-32692692.26798212</v>
       </c>
       <c r="H874">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="875" spans="1:8">
@@ -23168,7 +23168,7 @@
         <v>-33417626.32648212</v>
       </c>
       <c r="H876">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="877" spans="1:8">
@@ -23766,7 +23766,7 @@
         <v>-34261500.73330449</v>
       </c>
       <c r="H899">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="900" spans="1:8">
@@ -23818,7 +23818,7 @@
         <v>-34210850.57998649</v>
       </c>
       <c r="H901">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="902" spans="1:8">
@@ -23844,7 +23844,7 @@
         <v>-34217141.80998649</v>
       </c>
       <c r="H902">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="903" spans="1:8">
@@ -23870,7 +23870,7 @@
         <v>-32798135.17658649</v>
       </c>
       <c r="H903">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="904" spans="1:8">
@@ -23896,7 +23896,7 @@
         <v>-33711919.66728649</v>
       </c>
       <c r="H904">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="905" spans="1:8">
@@ -23922,7 +23922,7 @@
         <v>-33725275.20888648</v>
       </c>
       <c r="H905">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="906" spans="1:8">
@@ -23948,7 +23948,7 @@
         <v>-33725103.66618648</v>
       </c>
       <c r="H906">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="907" spans="1:8">
@@ -23974,7 +23974,7 @@
         <v>-33764842.47348648</v>
       </c>
       <c r="H907">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="908" spans="1:8">
@@ -24000,7 +24000,7 @@
         <v>-33761662.40038648</v>
       </c>
       <c r="H908">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="909" spans="1:8">
@@ -24052,7 +24052,7 @@
         <v>-33860310.11148648</v>
       </c>
       <c r="H910">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="911" spans="1:8">
@@ -24078,7 +24078,7 @@
         <v>-33821770.27698648</v>
       </c>
       <c r="H911">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="912" spans="1:8">
